--- a/config/Master_Test_Template.xlsx
+++ b/config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\test_automation_project\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FC65E0-C6AD-49B2-A016-B508746746BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6728B66-BBC5-42D4-B5DE-A1537EE2A550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="61">
   <si>
     <t>csv</t>
   </si>
@@ -172,18 +172,68 @@
   </si>
   <si>
     <t>validations</t>
+  </si>
+  <si>
+    <t>table2</t>
+  </si>
+  <si>
+    <t>FM7</t>
+  </si>
+  <si>
+    <t>FM8</t>
+  </si>
+  <si>
+    <t>RM9</t>
+  </si>
+  <si>
+    <t>data.parquet</t>
+  </si>
+  <si>
+    <t>parquet</t>
+  </si>
+  <si>
+    <t>taget_file.json</t>
+  </si>
+  <si>
+    <t>C:\Users\A4952\PycharmProjects\test_automation_project\files\Contact_info.csv</t>
+  </si>
+  <si>
+    <t>C:\Users\A4952\PycharmProjects\test_automation_project\files\Contact_info_t.csv</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -332,6 +382,12 @@
     <font>
       <sz val="9.8000000000000007"/>
       <color rgb="FF6AAB73"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFBCBEC4"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
@@ -358,97 +414,106 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -728,17 +793,17 @@
   <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P7" sqref="P7"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.5546875" style="2" bestFit="1" customWidth="1"/>
@@ -833,7 +898,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>0</v>
@@ -841,20 +906,20 @@
       <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>34</v>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K2" s="28" t="s">
         <v>17</v>
@@ -862,14 +927,14 @@
       <c r="L2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="30" t="s">
-        <v>39</v>
+      <c r="M2" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" s="32" t="s">
+        <v>58</v>
       </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="1" t="s">
@@ -884,7 +949,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
@@ -892,20 +957,20 @@
       <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>34</v>
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K3" s="28" t="s">
         <v>17</v>
@@ -913,14 +978,14 @@
       <c r="L3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" s="30" t="s">
-        <v>39</v>
+      <c r="M3" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" s="32" t="s">
+        <v>58</v>
       </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="1" t="s">
@@ -935,7 +1000,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>0</v>
@@ -943,20 +1008,20 @@
       <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>34</v>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K4" s="28" t="s">
         <v>17</v>
@@ -964,14 +1029,14 @@
       <c r="L4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="30" t="s">
-        <v>39</v>
+      <c r="M4" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" s="32" t="s">
+        <v>58</v>
       </c>
       <c r="P4" s="22"/>
       <c r="Q4" s="1" t="s">
@@ -986,7 +1051,7 @@
         <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>0</v>
@@ -994,20 +1059,20 @@
       <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>34</v>
+      <c r="F5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K5" s="28" t="s">
         <v>17</v>
@@ -1015,14 +1080,14 @@
       <c r="L5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>39</v>
+      <c r="M5" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" s="32" t="s">
+        <v>58</v>
       </c>
       <c r="P5" s="22"/>
       <c r="Q5" s="1" t="s">
@@ -1037,7 +1102,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>0</v>
@@ -1045,20 +1110,20 @@
       <c r="E6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>34</v>
+      <c r="F6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>36</v>
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K6" s="28" t="s">
         <v>17</v>
@@ -1066,14 +1131,14 @@
       <c r="L6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" s="30" t="s">
-        <v>39</v>
+      <c r="M6" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="N6" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" s="32" t="s">
+        <v>58</v>
       </c>
       <c r="P6" s="22"/>
       <c r="Q6" s="1" t="s">
@@ -1103,7 +1168,7 @@
         <v>34</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>32</v>
@@ -1128,84 +1193,212 @@
       </c>
       <c r="P7" s="14"/>
       <c r="Q7" s="1" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="1"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="13"/>
+      <c r="A8" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="30" t="s">
+        <v>39</v>
+      </c>
       <c r="P8" s="14"/>
-      <c r="Q8" s="1"/>
+      <c r="Q8" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="24"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="1"/>
+      <c r="A9" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="24"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="1"/>
+      <c r="A10" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="24"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="1"/>
+      <c r="A11" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="24"/>
@@ -1646,15 +1839,15 @@
       <c r="Q34" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q34" xr:uid="{53648117-6315-BD4B-95C3-AF9A5887C458}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D16 I1:I1048576" xr:uid="{39CDAD1A-527D-8A43-BFCC-4279C43AB355}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:D16 D10 I1:I1048576" xr:uid="{39CDAD1A-527D-8A43-BFCC-4279C43AB355}">
       <formula1>"csv,json,parquet,avro,table,snowflake,redshift,adls,s3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17:D1048576 D1:D8" xr:uid="{0251E4F9-1266-42BB-802C-E032AD2F255C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17:D1048576 D1:D9 D11" xr:uid="{0251E4F9-1266-42BB-802C-E032AD2F255C}">
       <formula1>"csv,json,parquet,avro,table,redshift,snowflake,adls,s3"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{A736D6D3-E056-442B-8A93-B37F82E798F4}">

--- a/config/Master_Test_Template.xlsx
+++ b/config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\test_automation_project\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6728B66-BBC5-42D4-B5DE-A1537EE2A550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24764871-B9F1-4C85-AD6C-3D44EC5968D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="54">
   <si>
     <t>csv</t>
   </si>
@@ -162,9 +162,6 @@
     <t>FM6</t>
   </si>
   <si>
-    <t>source_file2.json</t>
-  </si>
-  <si>
     <t>json</t>
   </si>
   <si>
@@ -174,27 +171,6 @@
     <t>validations</t>
   </si>
   <si>
-    <t>table2</t>
-  </si>
-  <si>
-    <t>FM7</t>
-  </si>
-  <si>
-    <t>FM8</t>
-  </si>
-  <si>
-    <t>RM9</t>
-  </si>
-  <si>
-    <t>data.parquet</t>
-  </si>
-  <si>
-    <t>parquet</t>
-  </si>
-  <si>
-    <t>taget_file.json</t>
-  </si>
-  <si>
     <t>C:\Users\A4952\PycharmProjects\test_automation_project\files\Contact_info.csv</t>
   </si>
   <si>
@@ -207,19 +183,29 @@
     <t>Surname</t>
   </si>
   <si>
-    <t>N</t>
+    <t>C:\Users\A4952\PycharmProjects\test_automation_project\schema_files\contact_info_schema.json</t>
+  </si>
+  <si>
+    <t>C:\Users\A4952\PycharmProjects\test_automation_project\files\singleline.json</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -414,106 +400,109 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -793,10 +782,10 @@
   <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -844,7 +833,7 @@
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="34" t="s">
         <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -898,7 +887,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>0</v>
@@ -910,10 +899,10 @@
         <v>17</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>0</v>
@@ -928,13 +917,13 @@
         <v>17</v>
       </c>
       <c r="M2" s="32" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="N2" s="33" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="O2" s="32" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="1" t="s">
@@ -949,7 +938,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
@@ -961,10 +950,10 @@
         <v>17</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>0</v>
@@ -979,13 +968,13 @@
         <v>17</v>
       </c>
       <c r="M3" s="32" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="N3" s="33" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="O3" s="32" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="1" t="s">
@@ -1000,7 +989,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>0</v>
@@ -1012,10 +1001,10 @@
         <v>17</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>0</v>
@@ -1030,13 +1019,13 @@
         <v>17</v>
       </c>
       <c r="M4" s="32" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="N4" s="33" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="O4" s="32" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="P4" s="22"/>
       <c r="Q4" s="1" t="s">
@@ -1051,7 +1040,7 @@
         <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>0</v>
@@ -1063,10 +1052,10 @@
         <v>17</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>0</v>
@@ -1081,13 +1070,13 @@
         <v>17</v>
       </c>
       <c r="M5" s="32" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="N5" s="33" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="O5" s="32" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="P5" s="22"/>
       <c r="Q5" s="1" t="s">
@@ -1102,7 +1091,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>0</v>
@@ -1114,10 +1103,10 @@
         <v>17</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>0</v>
@@ -1132,13 +1121,13 @@
         <v>17</v>
       </c>
       <c r="M6" s="32" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="O6" s="32" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="P6" s="22"/>
       <c r="Q6" s="1" t="s">
@@ -1153,28 +1142,28 @@
         <v>29</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>49</v>
+      <c r="F7" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="K7" s="28" t="s">
         <v>17</v>
@@ -1193,212 +1182,84 @@
       </c>
       <c r="P7" s="14"/>
       <c r="Q7" s="1" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="N8" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="O8" s="30" t="s">
-        <v>39</v>
-      </c>
+      <c r="A8" s="31"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="30"/>
       <c r="P8" s="14"/>
-      <c r="Q8" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="N9" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="O9" s="30" t="s">
-        <v>39</v>
-      </c>
+      <c r="A9" s="31"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="30"/>
       <c r="P9" s="14"/>
-      <c r="Q9" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K10" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="N10" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="O10" s="30" t="s">
-        <v>39</v>
-      </c>
+      <c r="A10" s="32"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="30"/>
       <c r="P10" s="14"/>
-      <c r="Q10" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="K11" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="N11" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="O11" s="30" t="s">
-        <v>39</v>
-      </c>
+      <c r="A11" s="28"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="30"/>
       <c r="P11" s="22"/>
-      <c r="Q11" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="24"/>
@@ -1839,7 +1700,7 @@
       <c r="Q34" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q34" xr:uid="{53648117-6315-BD4B-95C3-AF9A5887C458}">
       <formula1>"Y,N"</formula1>
@@ -1874,7 +1735,7 @@
   <sheetData>
     <row r="2" spans="1:14">
       <c r="N2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1918,7 +1779,7 @@
         <v>39</v>
       </c>
       <c r="N3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/config/Master_Test_Template.xlsx
+++ b/config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\test_automation_project\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24764871-B9F1-4C85-AD6C-3D44EC5968D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59723A4C-3484-4946-91B4-7BE0543231B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
     <sheet name="data_quality_checks" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_validation!$A$1:$U$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_validation!$A$1:$W$26</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="58">
   <si>
     <t>csv</t>
   </si>
@@ -187,18 +187,37 @@
   </si>
   <si>
     <t>C:\Users\A4952\PycharmProjects\test_automation_project\files\singleline.json</t>
+  </si>
+  <si>
+    <t>source_json_multiline</t>
+  </si>
+  <si>
+    <t>target_json_multiline</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>C:\Users\A4952\PycharmProjects\test_automation_project\files\Complex2.json</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -400,106 +419,109 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -779,13 +801,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U34"/>
+  <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P5" sqref="P5"/>
+      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -794,27 +816,29 @@
     <col min="2" max="2" width="15.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.6640625" style="2"/>
+    <col min="5" max="5" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="90.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -827,59 +851,65 @@
       <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="H1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:23">
       <c r="A2" s="28" t="s">
         <v>30</v>
       </c>
@@ -899,38 +929,44 @@
         <v>17</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="I2" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="N2" s="33" t="s">
-        <v>51</v>
+      <c r="M2" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="O2" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="P2" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="22"/>
+      <c r="S2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="28" t="s">
         <v>40</v>
       </c>
@@ -950,38 +986,44 @@
         <v>17</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="I3" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="N3" s="33" t="s">
-        <v>51</v>
+      <c r="M3" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="O3" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="P3" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q3" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="R3" s="22"/>
+      <c r="S3" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="28" t="s">
         <v>41</v>
       </c>
@@ -1001,38 +1043,44 @@
         <v>17</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="I4" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="N4" s="33" t="s">
-        <v>51</v>
+      <c r="M4" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="O4" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="P4" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q4" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="R4" s="22"/>
+      <c r="S4" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="28" t="s">
         <v>42</v>
       </c>
@@ -1052,38 +1100,44 @@
         <v>17</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="I5" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="28" t="s">
+      <c r="K5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5" s="33" t="s">
-        <v>51</v>
+      <c r="M5" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="O5" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="P5" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q5" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="R5" s="22"/>
+      <c r="S5" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="28" t="s">
         <v>43</v>
       </c>
@@ -1103,38 +1157,44 @@
         <v>17</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="I6" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="28" t="s">
+      <c r="K6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="N6" s="33" t="s">
-        <v>51</v>
+      <c r="M6" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="O6" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="P6" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q6" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="R6" s="22"/>
+      <c r="S6" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="28" t="s">
         <v>44</v>
       </c>
@@ -1147,568 +1207,628 @@
       <c r="D7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="34" t="s">
+      <c r="E7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>53</v>
+      <c r="H7" s="34" t="s">
+        <v>17</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="28" t="s">
-        <v>17</v>
+      <c r="K7" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="29" t="s">
+      <c r="P7" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="O7" s="30" t="s">
+      <c r="Q7" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="14"/>
+      <c r="S7" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:23">
       <c r="A8" s="31"/>
       <c r="B8" s="4"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="28"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="28"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="3"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="19"/>
       <c r="M8" s="28"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="N8" s="3"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="31"/>
       <c r="B9" s="4"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="28"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="28"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="3"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="19"/>
       <c r="M9" s="28"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="N9" s="3"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="32"/>
       <c r="B10" s="4"/>
       <c r="C10" s="27"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="28"/>
+      <c r="F10" s="3"/>
       <c r="G10" s="28"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="3"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="19"/>
       <c r="M10" s="28"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="N10" s="3"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="28"/>
       <c r="B11" s="4"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="28"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="28"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="3"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="19"/>
       <c r="M11" s="28"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="N11" s="3"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="24"/>
       <c r="B12" s="4"/>
       <c r="C12" s="27"/>
       <c r="D12" s="3"/>
       <c r="E12" s="19"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="F12" s="19"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="24"/>
       <c r="B13" s="4"/>
       <c r="C13" s="27"/>
       <c r="D13" s="3"/>
       <c r="E13" s="19"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="F13" s="19"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="24"/>
       <c r="B14" s="4"/>
       <c r="C14" s="27"/>
       <c r="D14" s="3"/>
       <c r="E14" s="19"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="F14" s="19"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="24"/>
       <c r="B15" s="4"/>
       <c r="C15" s="27"/>
       <c r="D15" s="3"/>
       <c r="E15" s="19"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="F15" s="19"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="24"/>
       <c r="B16" s="4"/>
       <c r="C16" s="27"/>
       <c r="D16" s="3"/>
       <c r="E16" s="19"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="F16" s="19"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="24"/>
       <c r="B17" s="4"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="19"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="3"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
       <c r="M17" s="24"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="N17" s="3"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="1"/>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="24"/>
       <c r="B18" s="4"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="3"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
       <c r="M18" s="24"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="N18" s="3"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="1"/>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="24"/>
       <c r="B19" s="4"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="3"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
       <c r="M19" s="24"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="N19" s="3"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="24"/>
       <c r="B20" s="4"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="3"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
       <c r="M20" s="24"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="N20" s="3"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="1"/>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="24"/>
       <c r="B21" s="4"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="3"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
       <c r="M21" s="24"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="N21" s="3"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="24"/>
       <c r="B22" s="4"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="3"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
       <c r="M22" s="24"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="N22" s="3"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="24"/>
       <c r="B23" s="4"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="3"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
       <c r="M23" s="24"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="1"/>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="N23" s="3"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="24"/>
       <c r="B24" s="4"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="19"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="3"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
       <c r="M24" s="24"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="1"/>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="N24" s="3"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="24"/>
       <c r="B25" s="4"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="19"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="3"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
       <c r="M25" s="24"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="1"/>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="N25" s="3"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="1"/>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" s="24"/>
       <c r="B26" s="4"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="19"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="3"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
       <c r="M26" s="24"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="1"/>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="N26" s="3"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="1"/>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="24"/>
       <c r="B27" s="4"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="19"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="3"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
       <c r="M27" s="24"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="15"/>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="N27" s="3"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="15"/>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" s="24"/>
       <c r="B28" s="4"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="19"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="3"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
       <c r="M28" s="24"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="1"/>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="N28" s="3"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="1"/>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" s="21"/>
       <c r="B29" s="4"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="1"/>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="F29" s="3"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="1"/>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" s="21"/>
       <c r="B30" s="4"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="1"/>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="F30" s="3"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="1"/>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" s="21"/>
       <c r="B31" s="4"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="1"/>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="F31" s="3"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="1"/>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" s="21"/>
       <c r="B32" s="4"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="1"/>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="F32" s="3"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="1"/>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="21"/>
       <c r="B33" s="4"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="1"/>
-    </row>
-    <row r="34" spans="1:17">
+      <c r="F33" s="3"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="21"/>
       <c r="B34" s="4"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="1"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q34" xr:uid="{53648117-6315-BD4B-95C3-AF9A5887C458}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S34" xr:uid="{53648117-6315-BD4B-95C3-AF9A5887C458}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:D16 D10 I1:I1048576" xr:uid="{39CDAD1A-527D-8A43-BFCC-4279C43AB355}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10 D12:D16 J1:J1048576" xr:uid="{39CDAD1A-527D-8A43-BFCC-4279C43AB355}">
       <formula1>"csv,json,parquet,avro,table,snowflake,redshift,adls,s3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17:D1048576 D1:D9 D11" xr:uid="{0251E4F9-1266-42BB-802C-E032AD2F255C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D9 D11 D17:D1048576" xr:uid="{0251E4F9-1266-42BB-802C-E032AD2F255C}">
       <formula1>"csv,json,parquet,avro,table,redshift,snowflake,adls,s3"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{A736D6D3-E056-442B-8A93-B37F82E798F4}">

--- a/config/Master_Test_Template.xlsx
+++ b/config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\test_automation_project\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59723A4C-3484-4946-91B4-7BE0543231B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA6BDCC-8A4B-4C63-8231-2F3FD9FE9AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="63">
   <si>
     <t>csv</t>
   </si>
@@ -199,18 +199,40 @@
   </si>
   <si>
     <t>C:\Users\A4952\PycharmProjects\test_automation_project\files\Complex2.json</t>
+  </si>
+  <si>
+    <t>FM7</t>
+  </si>
+  <si>
+    <t>C:\Users\A4952\PycharmProjects\test_automation_project\files\userdata1.parquet</t>
+  </si>
+  <si>
+    <t>parquet</t>
+  </si>
+  <si>
+    <t>C:\Users\A4952\PycharmProjects\test_automation_project\files\userdata1.avro</t>
+  </si>
+  <si>
+    <t>avro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -419,106 +441,109 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -804,10 +829,10 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -1248,29 +1273,65 @@
       </c>
       <c r="R7" s="14"/>
       <c r="S7" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="R8" s="14"/>
+      <c r="S8" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="A8" s="31"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="31"/>
@@ -1820,7 +1881,7 @@
       <c r="S34" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S34" xr:uid="{53648117-6315-BD4B-95C3-AF9A5887C458}">
       <formula1>"Y,N"</formula1>
@@ -1828,7 +1889,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10 D12:D16 J1:J1048576" xr:uid="{39CDAD1A-527D-8A43-BFCC-4279C43AB355}">
       <formula1>"csv,json,parquet,avro,table,snowflake,redshift,adls,s3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D9 D11 D17:D1048576" xr:uid="{0251E4F9-1266-42BB-802C-E032AD2F255C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17:D1048576 D11 D1:D9" xr:uid="{0251E4F9-1266-42BB-802C-E032AD2F255C}">
       <formula1>"csv,json,parquet,avro,table,redshift,snowflake,adls,s3"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{A736D6D3-E056-442B-8A93-B37F82E798F4}">

--- a/config/Master_Test_Template.xlsx
+++ b/config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\test_automation_project\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA6BDCC-8A4B-4C63-8231-2F3FD9FE9AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE83D608-A13A-4F9F-B06E-7A2EAC23837F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="68">
   <si>
     <t>csv</t>
   </si>
@@ -214,25 +214,33 @@
   </si>
   <si>
     <t>avro</t>
+  </si>
+  <si>
+    <t>FM8</t>
+  </si>
+  <si>
+    <t>snowflake</t>
+  </si>
+  <si>
+    <t>snowflake_db</t>
+  </si>
+  <si>
+    <t>CONTACT_INFO_BRONZE</t>
+  </si>
+  <si>
+    <t>SAMPLEDB.CONTACT_INFO.contact_info_raw</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -441,24 +449,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -491,56 +496,56 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -829,10 +834,10 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -876,16 +881,16 @@
       <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="32" t="s">
         <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -894,28 +899,28 @@
       <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="S1" s="1" t="s">
@@ -935,7 +940,7 @@
       </c>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -959,7 +964,7 @@
       <c r="H2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="26" t="s">
         <v>49</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -971,28 +976,28 @@
       <c r="L2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="27" t="s">
         <v>17</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="O2" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="33" t="s">
+      <c r="P2" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="32" t="s">
+      <c r="Q2" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="22"/>
+      <c r="R2" s="21"/>
       <c r="S2" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1016,7 +1021,7 @@
       <c r="H3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="26" t="s">
         <v>49</v>
       </c>
       <c r="J3" s="3" t="s">
@@ -1028,28 +1033,28 @@
       <c r="L3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="28" t="s">
+      <c r="M3" s="27" t="s">
         <v>17</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="32" t="s">
+      <c r="O3" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="33" t="s">
+      <c r="P3" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="Q3" s="32" t="s">
+      <c r="Q3" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="R3" s="22"/>
+      <c r="R3" s="21"/>
       <c r="S3" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1073,7 +1078,7 @@
       <c r="H4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="26" t="s">
         <v>49</v>
       </c>
       <c r="J4" s="3" t="s">
@@ -1085,28 +1090,28 @@
       <c r="L4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="28" t="s">
+      <c r="M4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="32" t="s">
+      <c r="O4" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="P4" s="33" t="s">
+      <c r="P4" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="Q4" s="32" t="s">
+      <c r="Q4" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="R4" s="22"/>
+      <c r="R4" s="21"/>
       <c r="S4" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="27" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1130,7 +1135,7 @@
       <c r="H5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="26" t="s">
         <v>49</v>
       </c>
       <c r="J5" s="3" t="s">
@@ -1142,28 +1147,28 @@
       <c r="L5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="28" t="s">
+      <c r="M5" s="27" t="s">
         <v>17</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="32" t="s">
+      <c r="O5" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="P5" s="33" t="s">
+      <c r="P5" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="Q5" s="32" t="s">
+      <c r="Q5" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="R5" s="22"/>
+      <c r="R5" s="21"/>
       <c r="S5" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="27" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1187,7 +1192,7 @@
       <c r="H6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="26" t="s">
         <v>49</v>
       </c>
       <c r="J6" s="3" t="s">
@@ -1199,28 +1204,28 @@
       <c r="L6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="28" t="s">
+      <c r="M6" s="27" t="s">
         <v>17</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="32" t="s">
+      <c r="O6" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="P6" s="33" t="s">
+      <c r="P6" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="Q6" s="32" t="s">
+      <c r="Q6" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="R6" s="22"/>
+      <c r="R6" s="21"/>
       <c r="S6" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="27" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1238,10 +1243,10 @@
       <c r="F7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="34" t="s">
+      <c r="G7" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="32" t="s">
         <v>17</v>
       </c>
       <c r="I7" s="3" t="s">
@@ -1256,28 +1261,28 @@
       <c r="L7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="28" t="s">
+      <c r="M7" s="27" t="s">
         <v>17</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="28" t="s">
+      <c r="O7" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="29" t="s">
+      <c r="P7" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="Q7" s="30" t="s">
+      <c r="Q7" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="R7" s="14"/>
+      <c r="R7" s="13"/>
       <c r="S7" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="34" t="s">
         <v>58</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1295,10 +1300,10 @@
       <c r="F8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="34" t="s">
+      <c r="G8" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="32" t="s">
         <v>17</v>
       </c>
       <c r="I8" s="3" t="s">
@@ -1313,587 +1318,626 @@
       <c r="L8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="28" t="s">
+      <c r="M8" s="27" t="s">
         <v>17</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="28" t="s">
+      <c r="O8" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="P8" s="29" t="s">
+      <c r="P8" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="Q8" s="30" t="s">
+      <c r="Q8" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="R8" s="14"/>
+      <c r="R8" s="13"/>
       <c r="S8" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="13"/>
+      <c r="S9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
-      <c r="A9" s="31"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="1"/>
-    </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="32"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="27"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="26"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="28"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="27"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="14"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="13"/>
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="28"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="4"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="26"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="28"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="27"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="22"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="21"/>
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="24"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="27"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="16"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="18"/>
+      <c r="I12" s="17"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="23"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="22"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="24"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="23"/>
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="24"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="27"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="16"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="18"/>
+      <c r="I13" s="17"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="23"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="22"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="24"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="23"/>
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="24"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="27"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="17"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="16"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="18"/>
+      <c r="I14" s="17"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="23"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="22"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="24"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="23"/>
       <c r="S14" s="1"/>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" s="24"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="27"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="16"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="18"/>
+      <c r="I15" s="17"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="23"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="22"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="24"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="23"/>
       <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="24"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="27"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="16"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="18"/>
+      <c r="I16" s="17"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="23"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="22"/>
       <c r="N16" s="3"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="24"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="23"/>
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="24"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="4"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="17"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="24"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="23"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="24"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="23"/>
       <c r="S17" s="1"/>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="24"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="4"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="17"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="24"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="23"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="24"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="23"/>
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="24"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="4"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="17"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="24"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="23"/>
       <c r="N19" s="3"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="24"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="23"/>
       <c r="S19" s="1"/>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="24"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="4"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="17"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="24"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="23"/>
       <c r="N20" s="3"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="24"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="23"/>
       <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="24"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="4"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="17"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="24"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="23"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="24"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="23"/>
       <c r="S21" s="1"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="24"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="4"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="17"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="24"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="23"/>
       <c r="N22" s="3"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="24"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="23"/>
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="1:20">
-      <c r="A23" s="24"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="4"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="17"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="24"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="23"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="24"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="23"/>
       <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:20">
-      <c r="A24" s="24"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="4"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="17"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="24"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="23"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="24"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="23"/>
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" s="24"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="4"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="17"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="24"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="23"/>
       <c r="N25" s="3"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="24"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="23"/>
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:20">
-      <c r="A26" s="24"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="4"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="17"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="24"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="23"/>
       <c r="N26" s="3"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="24"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="23"/>
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:20">
-      <c r="A27" s="24"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="4"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="17"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="24"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="23"/>
       <c r="N27" s="3"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="24"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="23"/>
       <c r="S27" s="1"/>
-      <c r="T27" s="15"/>
+      <c r="T27" s="14"/>
     </row>
     <row r="28" spans="1:20">
-      <c r="A28" s="24"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="4"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="17"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="24"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="23"/>
       <c r="N28" s="3"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="24"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="23"/>
       <c r="S28" s="1"/>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" s="21"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="4"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="18"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="17"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="17"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="16"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="14"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="13"/>
       <c r="S29" s="1"/>
     </row>
     <row r="30" spans="1:20">
-      <c r="A30" s="21"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="4"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="18"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="17"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="17"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="16"/>
       <c r="N30" s="3"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="14"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="13"/>
       <c r="S30" s="1"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="21"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="4"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="18"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="17"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="17"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="16"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="14"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="13"/>
       <c r="S31" s="1"/>
     </row>
     <row r="32" spans="1:20">
-      <c r="A32" s="21"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="4"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="18"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="17"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="17"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="16"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="14"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="13"/>
       <c r="S32" s="1"/>
     </row>
     <row r="33" spans="1:19">
-      <c r="A33" s="21"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="4"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="18"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="17"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="17"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="16"/>
       <c r="N33" s="3"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="14"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="13"/>
       <c r="S33" s="1"/>
     </row>
     <row r="34" spans="1:19">
-      <c r="A34" s="21"/>
+      <c r="A34" s="20"/>
       <c r="B34" s="4"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="18"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="17"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="17"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="16"/>
       <c r="N34" s="3"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="14"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="13"/>
       <c r="S34" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
-  <dataValidations count="4">
+  <phoneticPr fontId="23" type="noConversion"/>
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S34" xr:uid="{53648117-6315-BD4B-95C3-AF9A5887C458}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10 D12:D16 J1:J1048576" xr:uid="{39CDAD1A-527D-8A43-BFCC-4279C43AB355}">
       <formula1>"csv,json,parquet,avro,table,snowflake,redshift,adls,s3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17:D1048576 D11 D1:D9" xr:uid="{0251E4F9-1266-42BB-802C-E032AD2F255C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17:D1048576 D11 D1:D7 D9" xr:uid="{0251E4F9-1266-42BB-802C-E032AD2F255C}">
       <formula1>"csv,json,parquet,avro,table,redshift,snowflake,adls,s3"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{A736D6D3-E056-442B-8A93-B37F82E798F4}">
       <formula1>"count_check,duplicate,null_value_check,uniqueness_check,records_present_only_in_source,records_present_only_target,data_compare,schema_check,name_check,column_range_check,column_value_reference_check"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8" xr:uid="{6E83B623-DA5A-4C78-A5F1-52A03CE1643E}">
+      <formula1>"csv,json,parquet,avro,table,redshift,snowflake,adls,s3,dat"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1929,34 +1973,34 @@
       <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="26" t="s">
         <v>35</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="27" t="s">
         <v>17</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="L3" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="30" t="s">
+      <c r="M3" s="29" t="s">
         <v>39</v>
       </c>
       <c r="N3" t="s">

--- a/config/Master_Test_Template.xlsx
+++ b/config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\test_automation_project\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE83D608-A13A-4F9F-B06E-7A2EAC23837F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB46293-E6DE-497A-914E-9D87CDADABC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="69">
   <si>
     <t>csv</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>SAMPLEDB.CONTACT_INFO.contact_info_raw</t>
+  </si>
+  <si>
+    <t>C:\Users\A4952\PycharmProjects\test_automation_project\transformation_queries\contact_info_r2b.sql</t>
   </si>
 </sst>
 </file>
@@ -834,10 +837,10 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -1358,7 +1361,7 @@
         <v>65</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="H9" s="32" t="s">
         <v>17</v>

--- a/config/Master_Test_Template.xlsx
+++ b/config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\test_automation_project\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB46293-E6DE-497A-914E-9D87CDADABC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB82BE6-E739-4C72-9AAC-6F3BF9CE887F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="68">
   <si>
     <t>csv</t>
   </si>
@@ -193,9 +193,6 @@
   </si>
   <si>
     <t>target_json_multiline</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>C:\Users\A4952\PycharmProjects\test_automation_project\files\Complex2.json</t>
@@ -837,10 +834,10 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -884,7 +881,7 @@
       <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="35" t="s">
         <v>54</v>
       </c>
       <c r="F1" s="34" t="s">
@@ -893,7 +890,7 @@
       <c r="G1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="35" t="s">
         <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -996,7 +993,7 @@
       </c>
       <c r="R2" s="21"/>
       <c r="S2" s="1" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1053,7 +1050,7 @@
       </c>
       <c r="R3" s="21"/>
       <c r="S3" s="1" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1110,7 +1107,7 @@
       </c>
       <c r="R4" s="21"/>
       <c r="S4" s="1" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1167,7 +1164,7 @@
       </c>
       <c r="R5" s="21"/>
       <c r="S5" s="1" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1224,7 +1221,7 @@
       </c>
       <c r="R6" s="21"/>
       <c r="S6" s="1" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1253,7 +1250,7 @@
         <v>17</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>45</v>
@@ -1281,39 +1278,39 @@
       </c>
       <c r="R7" s="13"/>
       <c r="S7" s="1" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>17</v>
@@ -1338,45 +1335,45 @@
       </c>
       <c r="R8" s="13"/>
       <c r="S8" s="1" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="H9" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="M9" s="27" t="s">
         <v>17</v>

--- a/config/Master_Test_Template.xlsx
+++ b/config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\test_automation_project\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB82BE6-E739-4C72-9AAC-6F3BF9CE887F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A56ABE-A59D-4BC1-BC9A-6C67C1726CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="70">
   <si>
     <t>csv</t>
   </si>
@@ -171,45 +171,24 @@
     <t>validations</t>
   </si>
   <si>
-    <t>C:\Users\A4952\PycharmProjects\test_automation_project\files\Contact_info.csv</t>
-  </si>
-  <si>
-    <t>C:\Users\A4952\PycharmProjects\test_automation_project\files\Contact_info_t.csv</t>
-  </si>
-  <si>
     <t>identifier</t>
   </si>
   <si>
     <t>Surname</t>
   </si>
   <si>
-    <t>C:\Users\A4952\PycharmProjects\test_automation_project\schema_files\contact_info_schema.json</t>
-  </si>
-  <si>
-    <t>C:\Users\A4952\PycharmProjects\test_automation_project\files\singleline.json</t>
-  </si>
-  <si>
     <t>source_json_multiline</t>
   </si>
   <si>
     <t>target_json_multiline</t>
   </si>
   <si>
-    <t>C:\Users\A4952\PycharmProjects\test_automation_project\files\Complex2.json</t>
-  </si>
-  <si>
     <t>FM7</t>
   </si>
   <si>
-    <t>C:\Users\A4952\PycharmProjects\test_automation_project\files\userdata1.parquet</t>
-  </si>
-  <si>
     <t>parquet</t>
   </si>
   <si>
-    <t>C:\Users\A4952\PycharmProjects\test_automation_project\files\userdata1.avro</t>
-  </si>
-  <si>
     <t>avro</t>
   </si>
   <si>
@@ -228,19 +207,67 @@
     <t>SAMPLEDB.CONTACT_INFO.contact_info_raw</t>
   </si>
   <si>
-    <t>C:\Users\A4952\PycharmProjects\test_automation_project\transformation_queries\contact_info_r2b.sql</t>
+    <t>postgres_db</t>
+  </si>
+  <si>
+    <t>contact_info_r2b.sql</t>
+  </si>
+  <si>
+    <t>contact_info_schema.json</t>
+  </si>
+  <si>
+    <t>Contact_info.csv</t>
+  </si>
+  <si>
+    <t>singleline.json</t>
+  </si>
+  <si>
+    <t>userdata1.parquet</t>
+  </si>
+  <si>
+    <t>Contact_info_t.csv</t>
+  </si>
+  <si>
+    <t>Complex2.json</t>
+  </si>
+  <si>
+    <t>userdata1.avro</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -449,101 +476,110 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -553,8 +589,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -834,10 +879,10 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
+      <selection pane="bottomRight" activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -849,7 +894,7 @@
     <col min="5" max="5" width="19" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="90.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" style="2" bestFit="1" customWidth="1"/>
@@ -882,7 +927,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>15</v>
@@ -900,7 +945,7 @@
         <v>14</v>
       </c>
       <c r="K1" s="33" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>16</v>
@@ -947,53 +992,53 @@
         <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="26" t="s">
+      <c r="P2" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="P2" s="31" t="s">
-        <v>51</v>
-      </c>
       <c r="Q2" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R2" s="21"/>
       <c r="S2" s="1" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1004,7 +1049,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
@@ -1019,10 +1064,10 @@
         <v>17</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="26" t="s">
-        <v>49</v>
+        <v>62</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>66</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>0</v>
@@ -1040,17 +1085,17 @@
         <v>17</v>
       </c>
       <c r="O3" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P3" s="31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q3" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R3" s="21"/>
       <c r="S3" s="1" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1061,7 +1106,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>0</v>
@@ -1076,10 +1121,10 @@
         <v>17</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>49</v>
+        <v>62</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>66</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>0</v>
@@ -1097,17 +1142,17 @@
         <v>17</v>
       </c>
       <c r="O4" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P4" s="31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q4" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R4" s="21"/>
       <c r="S4" s="1" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1118,7 +1163,7 @@
         <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>0</v>
@@ -1133,10 +1178,10 @@
         <v>17</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>49</v>
+        <v>62</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>66</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>0</v>
@@ -1154,17 +1199,17 @@
         <v>17</v>
       </c>
       <c r="O5" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P5" s="31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q5" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R5" s="21"/>
       <c r="S5" s="1" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1175,7 +1220,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>0</v>
@@ -1190,10 +1235,10 @@
         <v>17</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>49</v>
+        <v>62</v>
+      </c>
+      <c r="I6" s="38" t="s">
+        <v>66</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>0</v>
@@ -1211,17 +1256,17 @@
         <v>17</v>
       </c>
       <c r="O6" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P6" s="31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q6" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R6" s="21"/>
       <c r="S6" s="1" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1232,7 +1277,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>45</v>
@@ -1249,8 +1294,8 @@
       <c r="H7" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>56</v>
+      <c r="I7" s="39" t="s">
+        <v>67</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>45</v>
@@ -1278,21 +1323,21 @@
       </c>
       <c r="R7" s="13"/>
       <c r="S7" s="1" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="34" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>17</v>
@@ -1306,11 +1351,11 @@
       <c r="H8" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>60</v>
+      <c r="I8" s="39" t="s">
+        <v>68</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>17</v>
@@ -1335,45 +1380,45 @@
       </c>
       <c r="R8" s="13"/>
       <c r="S8" s="1" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="34" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>67</v>
+        <v>57</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>61</v>
       </c>
       <c r="H9" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="32" t="s">
-        <v>65</v>
+      <c r="I9" s="41" t="s">
+        <v>58</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="18" t="s">
-        <v>64</v>
+      <c r="L9" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="M9" s="27" t="s">
         <v>17</v>
@@ -1396,18 +1441,18 @@
       </c>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="30"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="26"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="26"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="40"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="18"/>
+      <c r="L10" s="3"/>
       <c r="M10" s="27"/>
       <c r="N10" s="3"/>
       <c r="O10" s="27"/>
@@ -1922,15 +1967,15 @@
       <c r="S34" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="26" type="noConversion"/>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S34" xr:uid="{53648117-6315-BD4B-95C3-AF9A5887C458}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10 D12:D16 J1:J1048576" xr:uid="{39CDAD1A-527D-8A43-BFCC-4279C43AB355}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:D16 J1:J1048576" xr:uid="{39CDAD1A-527D-8A43-BFCC-4279C43AB355}">
       <formula1>"csv,json,parquet,avro,table,snowflake,redshift,adls,s3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17:D1048576 D11 D1:D7 D9" xr:uid="{0251E4F9-1266-42BB-802C-E032AD2F255C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17:D1048576 D1:D7 D9:D11" xr:uid="{0251E4F9-1266-42BB-802C-E032AD2F255C}">
       <formula1>"csv,json,parquet,avro,table,redshift,snowflake,adls,s3"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{A736D6D3-E056-442B-8A93-B37F82E798F4}">

--- a/config/Master_Test_Template.xlsx
+++ b/config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\test_automation_project\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A56ABE-A59D-4BC1-BC9A-6C67C1726CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3FA0D9-BC0B-4A4C-8C56-56763FC911C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -882,7 +882,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S7" sqref="S7"/>
+      <selection pane="bottomRight" activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>

--- a/config/Master_Test_Template.xlsx
+++ b/config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\test_automation_project\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3FA0D9-BC0B-4A4C-8C56-56763FC911C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C4222F-F9EE-4C02-90B3-C39B80F3714C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="77">
   <si>
     <t>csv</t>
   </si>
@@ -171,12 +171,6 @@
     <t>validations</t>
   </si>
   <si>
-    <t>identifier</t>
-  </si>
-  <si>
-    <t>Surname</t>
-  </si>
-  <si>
     <t>source_json_multiline</t>
   </si>
   <si>
@@ -235,25 +229,45 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>identifier,surname</t>
+  </si>
+  <si>
+    <t>identifier,given_name</t>
+  </si>
+  <si>
+    <t>FM9</t>
+  </si>
+  <si>
+    <t>FM10</t>
+  </si>
+  <si>
+    <t>FM11</t>
+  </si>
+  <si>
+    <t>FM12</t>
+  </si>
+  <si>
+    <t>FM13</t>
+  </si>
+  <si>
+    <t>identifier,surname,given_name</t>
+  </si>
+  <si>
+    <t>Surname,middle_initial</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -444,12 +458,6 @@
     <font>
       <sz val="9.8000000000000007"/>
       <color rgb="FF6AAB73"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FFBCBEC4"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
@@ -476,86 +484,83 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -568,9 +573,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -583,23 +585,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -882,7 +881,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q13" sqref="Q13"/>
+      <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -901,9 +900,9 @@
     <col min="12" max="12" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="30" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10" style="2" bestFit="1" customWidth="1"/>
@@ -926,16 +925,16 @@
       <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="34" t="s">
+      <c r="E1" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="32" t="s">
         <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -944,28 +943,28 @@
       <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="33" t="s">
-        <v>51</v>
+      <c r="K1" s="30" t="s">
+        <v>49</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="9" t="s">
         <v>24</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="S1" s="1" t="s">
@@ -985,17 +984,17 @@
       </c>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>17</v>
@@ -1007,49 +1006,49 @@
         <v>17</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q2" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" s="21"/>
+      <c r="P2" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="R2" s="20"/>
       <c r="S2" s="1" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
@@ -1064,10 +1063,10 @@
         <v>17</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>66</v>
+        <v>60</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>64</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>0</v>
@@ -1078,35 +1077,35 @@
       <c r="L3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="27" t="s">
+      <c r="M3" s="26" t="s">
         <v>17</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q3" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="R3" s="21"/>
+      <c r="O3" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="P3" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q3" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="R3" s="20"/>
       <c r="S3" s="1" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="26" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>0</v>
@@ -1121,10 +1120,10 @@
         <v>17</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I4" s="38" t="s">
-        <v>66</v>
+        <v>60</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>64</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>0</v>
@@ -1135,35 +1134,35 @@
       <c r="L4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="27" t="s">
+      <c r="M4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q4" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="R4" s="21"/>
+      <c r="O4" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q4" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="R4" s="20"/>
       <c r="S4" s="1" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>0</v>
@@ -1178,10 +1177,10 @@
         <v>17</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>66</v>
+        <v>60</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>64</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>0</v>
@@ -1192,35 +1191,35 @@
       <c r="L5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="27" t="s">
+      <c r="M5" s="26" t="s">
         <v>17</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="P5" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q5" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="R5" s="21"/>
+      <c r="O5" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="P5" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q5" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="R5" s="20"/>
       <c r="S5" s="1" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>0</v>
@@ -1235,10 +1234,10 @@
         <v>17</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="38" t="s">
-        <v>66</v>
+        <v>60</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>64</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>0</v>
@@ -1249,35 +1248,35 @@
       <c r="L6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="27" t="s">
+      <c r="M6" s="26" t="s">
         <v>17</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="P6" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q6" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="R6" s="21"/>
+      <c r="O6" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="R6" s="20"/>
       <c r="S6" s="1" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="26" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>45</v>
@@ -1288,14 +1287,14 @@
       <c r="F7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>67</v>
+      <c r="G7" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>65</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>45</v>
@@ -1306,110 +1305,110 @@
       <c r="L7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="27" t="s">
+      <c r="M7" s="26" t="s">
         <v>17</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="27" t="s">
+      <c r="O7" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="28" t="s">
+      <c r="P7" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="Q7" s="29" t="s">
+      <c r="Q7" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="R7" s="13"/>
+      <c r="R7" s="12"/>
       <c r="S7" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="34" t="s">
-        <v>52</v>
+      <c r="A8" s="31" t="s">
+        <v>50</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="R8" s="12"/>
+      <c r="S8" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="31" t="s">
         <v>53</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O8" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="P8" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q8" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="R8" s="13"/>
-      <c r="S8" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="A9" s="34" t="s">
-        <v>55</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="H9" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="36" t="s">
         <v>56</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="41" t="s">
-        <v>58</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>32</v>
@@ -1418,564 +1417,744 @@
         <v>17</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M9" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" s="26" t="s">
         <v>17</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="P9" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q9" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="R9" s="13"/>
+      <c r="O9" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="P9" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q9" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="R9" s="12"/>
       <c r="S9" s="1" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="34"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="1"/>
+      <c r="A10" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="P10" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q10" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="R10" s="12"/>
+      <c r="S10" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="27"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="1"/>
+      <c r="A11" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M11" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="P11" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q11" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="R11" s="12"/>
+      <c r="S11" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="23"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="1"/>
+      <c r="A12" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="P12" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q12" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="R12" s="12"/>
+      <c r="S12" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="23"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="1"/>
+      <c r="A13" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M13" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="P13" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q13" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="R13" s="12"/>
+      <c r="S13" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="23"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="1"/>
+      <c r="A14" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="P14" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q14" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="R14" s="12"/>
+      <c r="S14" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" s="23"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="26"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="15"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="17"/>
+      <c r="I15" s="16"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="22"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="21"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="23"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="22"/>
       <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="23"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="26"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="15"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="17"/>
+      <c r="I16" s="16"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="22"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="21"/>
       <c r="N16" s="3"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="23"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="22"/>
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="23"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="4"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="16"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="23"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="22"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="23"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="22"/>
       <c r="S17" s="1"/>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="23"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="4"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="16"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="23"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="22"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="23"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="22"/>
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="23"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="4"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="16"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="23"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="22"/>
       <c r="N19" s="3"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="23"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="22"/>
       <c r="S19" s="1"/>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="23"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="4"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="16"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="23"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="22"/>
       <c r="N20" s="3"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="23"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="22"/>
       <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="23"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="4"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="16"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="23"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="22"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="23"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="22"/>
       <c r="S21" s="1"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="23"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="4"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="16"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="23"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="22"/>
       <c r="N22" s="3"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="23"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="22"/>
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="1:20">
-      <c r="A23" s="23"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="4"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="16"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="23"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="22"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="23"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="22"/>
       <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:20">
-      <c r="A24" s="23"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="4"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="16"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="23"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="22"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="23"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="22"/>
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" s="23"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="4"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="16"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="23"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="22"/>
       <c r="N25" s="3"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="23"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="22"/>
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:20">
-      <c r="A26" s="23"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="4"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="16"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="23"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="22"/>
       <c r="N26" s="3"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="23"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="22"/>
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:20">
-      <c r="A27" s="23"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="4"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="16"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="23"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="22"/>
       <c r="N27" s="3"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="23"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="22"/>
       <c r="S27" s="1"/>
-      <c r="T27" s="14"/>
+      <c r="T27" s="13"/>
     </row>
     <row r="28" spans="1:20">
-      <c r="A28" s="23"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="4"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="16"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="23"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="22"/>
       <c r="N28" s="3"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="23"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="22"/>
       <c r="S28" s="1"/>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" s="20"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="4"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="17"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="16"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="16"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="15"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="13"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="12"/>
       <c r="S29" s="1"/>
     </row>
     <row r="30" spans="1:20">
-      <c r="A30" s="20"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="4"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="17"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="16"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="16"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="15"/>
       <c r="N30" s="3"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="13"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="12"/>
       <c r="S30" s="1"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="20"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="4"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="17"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="16"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="16"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="15"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="13"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="12"/>
       <c r="S31" s="1"/>
     </row>
     <row r="32" spans="1:20">
-      <c r="A32" s="20"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="4"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="17"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="16"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="16"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="15"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="13"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="12"/>
       <c r="S32" s="1"/>
     </row>
     <row r="33" spans="1:19">
-      <c r="A33" s="20"/>
+      <c r="A33" s="19"/>
       <c r="B33" s="4"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="17"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="16"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="16"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="15"/>
       <c r="N33" s="3"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="13"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="12"/>
       <c r="S33" s="1"/>
     </row>
     <row r="34" spans="1:19">
-      <c r="A34" s="20"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="4"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="17"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="16"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="16"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="15"/>
       <c r="N34" s="3"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="13"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="12"/>
       <c r="S34" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="26" type="noConversion"/>
+  <phoneticPr fontId="25" type="noConversion"/>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S34" xr:uid="{53648117-6315-BD4B-95C3-AF9A5887C458}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:D16 J1:J1048576" xr:uid="{39CDAD1A-527D-8A43-BFCC-4279C43AB355}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576 D15:D16" xr:uid="{39CDAD1A-527D-8A43-BFCC-4279C43AB355}">
       <formula1>"csv,json,parquet,avro,table,snowflake,redshift,adls,s3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17:D1048576 D1:D7 D9:D11" xr:uid="{0251E4F9-1266-42BB-802C-E032AD2F255C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17:D1048576 D1:D7 D9:D14" xr:uid="{0251E4F9-1266-42BB-802C-E032AD2F255C}">
       <formula1>"csv,json,parquet,avro,table,redshift,snowflake,adls,s3"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{A736D6D3-E056-442B-8A93-B37F82E798F4}">
@@ -2018,34 +2197,34 @@
       <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="25" t="s">
         <v>35</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="26" t="s">
         <v>17</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="29" t="s">
+      <c r="M3" s="28" t="s">
         <v>39</v>
       </c>
       <c r="N3" t="s">

--- a/config/Master_Test_Template.xlsx
+++ b/config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\test_automation_project\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C4222F-F9EE-4C02-90B3-C39B80F3714C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3666CD-EEB7-4748-A641-999F56FFEA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
     <sheet name="data_quality_checks" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_validation!$A$1:$W$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_validation!$A$1:$W$29</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="80">
   <si>
     <t>csv</t>
   </si>
@@ -256,18 +256,41 @@
   </si>
   <si>
     <t>Surname,middle_initial</t>
+  </si>
+  <si>
+    <t>records_present_only_in_source</t>
+  </si>
+  <si>
+    <t>records_present_only_target</t>
+  </si>
+  <si>
+    <t>identifier</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -484,92 +507,98 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -579,20 +608,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -875,19 +904,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W34"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P2" sqref="P2"/>
+      <selection pane="bottomRight" activeCell="S2" sqref="S2:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="2" bestFit="1" customWidth="1"/>
@@ -1026,8 +1055,8 @@
       <c r="N2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="37" t="s">
-        <v>68</v>
+      <c r="O2" s="39" t="s">
+        <v>79</v>
       </c>
       <c r="P2" s="37" t="s">
         <v>76</v>
@@ -1037,7 +1066,7 @@
       </c>
       <c r="R2" s="20"/>
       <c r="S2" s="1" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1083,8 +1112,8 @@
       <c r="N3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="37" t="s">
-        <v>68</v>
+      <c r="O3" s="39" t="s">
+        <v>79</v>
       </c>
       <c r="P3" s="37" t="s">
         <v>76</v>
@@ -1094,7 +1123,7 @@
       </c>
       <c r="R3" s="20"/>
       <c r="S3" s="1" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1140,8 +1169,8 @@
       <c r="N4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="37" t="s">
-        <v>68</v>
+      <c r="O4" s="39" t="s">
+        <v>79</v>
       </c>
       <c r="P4" s="37" t="s">
         <v>76</v>
@@ -1151,7 +1180,7 @@
       </c>
       <c r="R4" s="20"/>
       <c r="S4" s="1" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1197,8 +1226,8 @@
       <c r="N5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="37" t="s">
-        <v>68</v>
+      <c r="O5" s="39" t="s">
+        <v>79</v>
       </c>
       <c r="P5" s="37" t="s">
         <v>76</v>
@@ -1208,7 +1237,7 @@
       </c>
       <c r="R5" s="20"/>
       <c r="S5" s="1" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1254,8 +1283,8 @@
       <c r="N6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="37" t="s">
-        <v>68</v>
+      <c r="O6" s="39" t="s">
+        <v>79</v>
       </c>
       <c r="P6" s="37" t="s">
         <v>76</v>
@@ -1265,7 +1294,7 @@
       </c>
       <c r="R6" s="20"/>
       <c r="S6" s="1" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1273,34 +1302,34 @@
         <v>44</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="E7" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="F7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="35" t="s">
-        <v>65</v>
+      <c r="G7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>64</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>17</v>
@@ -1311,32 +1340,32 @@
       <c r="N7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="P7" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q7" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="R7" s="12"/>
+      <c r="O7" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="P7" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="R7" s="20"/>
       <c r="S7" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="26" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>17</v>
@@ -1344,17 +1373,17 @@
       <c r="F8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="35" t="s">
-        <v>66</v>
+      <c r="G8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>64</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>17</v>
@@ -1368,56 +1397,56 @@
       <c r="N8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="P8" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q8" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="R8" s="12"/>
+      <c r="O8" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="R8" s="20"/>
       <c r="S8" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="40" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="36" t="s">
-        <v>56</v>
+        <v>17</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>64</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="M9" s="26" t="s">
         <v>17</v>
@@ -1425,56 +1454,56 @@
       <c r="N9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="37" t="s">
-        <v>68</v>
+      <c r="O9" s="39" t="s">
+        <v>79</v>
       </c>
       <c r="P9" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q9" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="R9" s="12"/>
+        <v>76</v>
+      </c>
+      <c r="Q9" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="R9" s="20"/>
       <c r="S9" s="1" t="s">
-        <v>67</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="37" t="s">
-        <v>70</v>
+      <c r="A10" s="26" t="s">
+        <v>44</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>17</v>
+        <v>45</v>
+      </c>
+      <c r="E10" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>59</v>
+        <v>17</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>17</v>
       </c>
       <c r="H10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="36" t="s">
-        <v>56</v>
+      <c r="I10" s="35" t="s">
+        <v>65</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>17</v>
+        <v>45</v>
+      </c>
+      <c r="K10" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="M10" s="26" t="s">
         <v>17</v>
@@ -1482,14 +1511,14 @@
       <c r="N10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O10" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="P10" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q10" s="37" t="s">
-        <v>68</v>
+      <c r="O10" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="28" t="s">
+        <v>39</v>
       </c>
       <c r="R10" s="12"/>
       <c r="S10" s="1" t="s">
@@ -1498,40 +1527,40 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="31" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>59</v>
+        <v>17</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>17</v>
       </c>
       <c r="H11" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="36" t="s">
-        <v>56</v>
+      <c r="I11" s="35" t="s">
+        <v>66</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="M11" s="26" t="s">
         <v>17</v>
@@ -1539,14 +1568,14 @@
       <c r="N11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O11" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="P11" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q11" s="37" t="s">
-        <v>68</v>
+      <c r="O11" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="P11" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q11" s="28" t="s">
+        <v>39</v>
       </c>
       <c r="R11" s="12"/>
       <c r="S11" s="1" t="s">
@@ -1554,11 +1583,11 @@
       </c>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="37" t="s">
-        <v>72</v>
+      <c r="A12" s="31" t="s">
+        <v>53</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>57</v>
@@ -1611,11 +1640,11 @@
       </c>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="31" t="s">
-        <v>73</v>
+      <c r="A13" s="37" t="s">
+        <v>70</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>57</v>
@@ -1668,11 +1697,11 @@
       </c>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="37" t="s">
-        <v>74</v>
+      <c r="A14" s="31" t="s">
+        <v>71</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>57</v>
@@ -1725,107 +1754,215 @@
       </c>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" s="22"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="1"/>
+      <c r="A15" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M15" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="P15" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q15" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="R15" s="12"/>
+      <c r="S15" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="22"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="1"/>
+      <c r="A16" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="P16" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q16" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="R16" s="12"/>
+      <c r="S16" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="22"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="1"/>
+      <c r="A17" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M17" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O17" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="P17" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q17" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="R17" s="12"/>
+      <c r="S17" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="22"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="3"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="3"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="22"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="3"/>
       <c r="I18" s="16"/>
       <c r="J18" s="3"/>
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
-      <c r="M18" s="22"/>
+      <c r="M18" s="21"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="24"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="11"/>
       <c r="R18" s="22"/>
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="22"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="3"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="3"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="22"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="3"/>
       <c r="I19" s="16"/>
       <c r="J19" s="3"/>
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
-      <c r="M19" s="22"/>
+      <c r="M19" s="21"/>
       <c r="N19" s="3"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="24"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="11"/>
       <c r="R19" s="22"/>
       <c r="S19" s="1"/>
     </row>
@@ -1996,7 +2133,6 @@
       <c r="Q27" s="24"/>
       <c r="R27" s="22"/>
       <c r="S27" s="1"/>
-      <c r="T27" s="13"/>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="22"/>
@@ -2020,66 +2156,67 @@
       <c r="S28" s="1"/>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" s="19"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="4"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="18"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="22"/>
       <c r="I29" s="16"/>
       <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
+      <c r="K29" s="17"/>
       <c r="L29" s="17"/>
-      <c r="M29" s="15"/>
+      <c r="M29" s="22"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="12"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="22"/>
       <c r="S29" s="1"/>
     </row>
     <row r="30" spans="1:20">
-      <c r="A30" s="19"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="4"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="18"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="22"/>
       <c r="I30" s="16"/>
       <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
+      <c r="K30" s="17"/>
       <c r="L30" s="17"/>
-      <c r="M30" s="15"/>
+      <c r="M30" s="22"/>
       <c r="N30" s="3"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="12"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="22"/>
       <c r="S30" s="1"/>
+      <c r="T30" s="13"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="19"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="4"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="18"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="22"/>
       <c r="I31" s="16"/>
       <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
+      <c r="K31" s="17"/>
       <c r="L31" s="17"/>
-      <c r="M31" s="15"/>
+      <c r="M31" s="22"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="12"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="22"/>
       <c r="S31" s="1"/>
     </row>
     <row r="32" spans="1:20">
@@ -2145,22 +2282,85 @@
       <c r="R34" s="12"/>
       <c r="S34" s="1"/>
     </row>
+    <row r="35" spans="1:19">
+      <c r="A35" s="19"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="1"/>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" s="19"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="1"/>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" s="19"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="1"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="25" type="noConversion"/>
+  <phoneticPr fontId="27" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S34" xr:uid="{53648117-6315-BD4B-95C3-AF9A5887C458}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S37" xr:uid="{53648117-6315-BD4B-95C3-AF9A5887C458}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576 D15:D16" xr:uid="{39CDAD1A-527D-8A43-BFCC-4279C43AB355}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18:D19 J1:J1048576" xr:uid="{39CDAD1A-527D-8A43-BFCC-4279C43AB355}">
       <formula1>"csv,json,parquet,avro,table,snowflake,redshift,adls,s3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17:D1048576 D1:D7 D9:D14" xr:uid="{0251E4F9-1266-42BB-802C-E032AD2F255C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20:D1048576 D12:D17 D1:D10" xr:uid="{0251E4F9-1266-42BB-802C-E032AD2F255C}">
       <formula1>"csv,json,parquet,avro,table,redshift,snowflake,adls,s3"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{A736D6D3-E056-442B-8A93-B37F82E798F4}">
       <formula1>"count_check,duplicate,null_value_check,uniqueness_check,records_present_only_in_source,records_present_only_target,data_compare,schema_check,name_check,column_range_check,column_value_reference_check"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8" xr:uid="{6E83B623-DA5A-4C78-A5F1-52A03CE1643E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11" xr:uid="{6E83B623-DA5A-4C78-A5F1-52A03CE1643E}">
       <formula1>"csv,json,parquet,avro,table,redshift,snowflake,adls,s3,dat"</formula1>
     </dataValidation>
   </dataValidations>

--- a/config/Master_Test_Template.xlsx
+++ b/config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\test_automation_project\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3666CD-EEB7-4748-A641-999F56FFEA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730F7493-0651-4299-A4AD-6BC69ECE99AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
     <sheet name="data_quality_checks" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_validation!$A$1:$W$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_validation!$A$1:$W$31</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="82">
   <si>
     <t>csv</t>
   </si>
@@ -265,18 +265,38 @@
   </si>
   <si>
     <t>identifier</t>
+  </si>
+  <si>
+    <t>name_check</t>
+  </si>
+  <si>
+    <t>transaction_amt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -507,92 +527,98 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -602,20 +628,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -904,13 +930,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W37"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S2" sqref="S2:S8"/>
+      <selection pane="bottomRight" activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -931,7 +957,7 @@
     <col min="14" max="14" width="30" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10" style="2" bestFit="1" customWidth="1"/>
@@ -999,7 +1025,7 @@
       <c r="S1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="42" t="s">
         <v>21</v>
       </c>
       <c r="U1" s="2" t="s">
@@ -1465,96 +1491,106 @@
       </c>
       <c r="R9" s="20"/>
       <c r="S9" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="R10" s="20"/>
+      <c r="S10" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="3" t="b">
+      <c r="T10" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="U10" s="42"/>
+      <c r="V10" s="2">
+        <v>5</v>
+      </c>
+      <c r="W10" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O10" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="P10" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q10" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="R10" s="12"/>
-      <c r="S10" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="A11" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="E11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="35" t="s">
-        <v>66</v>
+      <c r="G11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>64</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>17</v>
@@ -1568,56 +1604,56 @@
       <c r="N11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O11" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="P11" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q11" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="R11" s="12"/>
+      <c r="O11" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="P11" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="R11" s="20"/>
       <c r="S11" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="31" t="s">
-        <v>53</v>
+      <c r="A12" s="26" t="s">
+        <v>44</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>17</v>
+        <v>45</v>
+      </c>
+      <c r="E12" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>59</v>
+        <v>17</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>17</v>
       </c>
       <c r="H12" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="36" t="s">
-        <v>56</v>
+      <c r="I12" s="35" t="s">
+        <v>65</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>17</v>
+        <v>45</v>
+      </c>
+      <c r="K12" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="M12" s="26" t="s">
         <v>17</v>
@@ -1625,14 +1661,14 @@
       <c r="N12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="P12" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q12" s="37" t="s">
-        <v>68</v>
+      <c r="O12" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q12" s="28" t="s">
+        <v>39</v>
       </c>
       <c r="R12" s="12"/>
       <c r="S12" s="1" t="s">
@@ -1640,41 +1676,41 @@
       </c>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="37" t="s">
-        <v>70</v>
+      <c r="A13" s="31" t="s">
+        <v>50</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>59</v>
+        <v>17</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>17</v>
       </c>
       <c r="H13" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="36" t="s">
-        <v>56</v>
+      <c r="I13" s="35" t="s">
+        <v>66</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="M13" s="26" t="s">
         <v>17</v>
@@ -1682,14 +1718,14 @@
       <c r="N13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O13" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="P13" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q13" s="37" t="s">
-        <v>68</v>
+      <c r="O13" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="P13" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q13" s="28" t="s">
+        <v>39</v>
       </c>
       <c r="R13" s="12"/>
       <c r="S13" s="1" t="s">
@@ -1698,10 +1734,10 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="31" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>57</v>
@@ -1739,7 +1775,7 @@
       <c r="N14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O14" s="37" t="s">
+      <c r="O14" s="41" t="s">
         <v>68</v>
       </c>
       <c r="P14" s="37" t="s">
@@ -1755,10 +1791,10 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>57</v>
@@ -1812,10 +1848,10 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>57</v>
@@ -1869,10 +1905,10 @@
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>57</v>
@@ -1925,86 +1961,158 @@
       </c>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="22"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="1"/>
+      <c r="A18" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M18" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O18" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="P18" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q18" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="R18" s="12"/>
+      <c r="S18" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="22"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="1"/>
+      <c r="A19" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M19" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O19" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="P19" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q19" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="R19" s="12"/>
+      <c r="S19" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="22"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="3"/>
+      <c r="C20" s="25"/>
       <c r="D20" s="3"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="22"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="3"/>
       <c r="I20" s="16"/>
       <c r="J20" s="3"/>
       <c r="K20" s="17"/>
       <c r="L20" s="17"/>
-      <c r="M20" s="22"/>
+      <c r="M20" s="21"/>
       <c r="N20" s="3"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="24"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="11"/>
       <c r="R20" s="22"/>
       <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="22"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="3"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="3"/>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="22"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="3"/>
       <c r="I21" s="16"/>
       <c r="J21" s="3"/>
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
-      <c r="M21" s="22"/>
+      <c r="M21" s="21"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="24"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="11"/>
       <c r="R21" s="22"/>
       <c r="S21" s="1"/>
     </row>
@@ -2196,7 +2304,6 @@
       <c r="Q30" s="24"/>
       <c r="R30" s="22"/>
       <c r="S30" s="1"/>
-      <c r="T30" s="13"/>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="22"/>
@@ -2220,45 +2327,46 @@
       <c r="S31" s="1"/>
     </row>
     <row r="32" spans="1:20">
-      <c r="A32" s="19"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="4"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="18"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="22"/>
       <c r="I32" s="16"/>
       <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
+      <c r="K32" s="17"/>
       <c r="L32" s="17"/>
-      <c r="M32" s="15"/>
+      <c r="M32" s="22"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="12"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="22"/>
       <c r="S32" s="1"/>
+      <c r="T32" s="13"/>
     </row>
     <row r="33" spans="1:19">
-      <c r="A33" s="19"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="4"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="18"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="22"/>
       <c r="I33" s="16"/>
       <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
+      <c r="K33" s="17"/>
       <c r="L33" s="17"/>
-      <c r="M33" s="15"/>
+      <c r="M33" s="22"/>
       <c r="N33" s="3"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="12"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="22"/>
       <c r="S33" s="1"/>
     </row>
     <row r="34" spans="1:19">
@@ -2345,22 +2453,64 @@
       <c r="R37" s="12"/>
       <c r="S37" s="1"/>
     </row>
+    <row r="38" spans="1:19">
+      <c r="A38" s="19"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="1"/>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" s="19"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="1"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="27" type="noConversion"/>
+  <phoneticPr fontId="29" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S37" xr:uid="{53648117-6315-BD4B-95C3-AF9A5887C458}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S39" xr:uid="{53648117-6315-BD4B-95C3-AF9A5887C458}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18:D19 J1:J1048576" xr:uid="{39CDAD1A-527D-8A43-BFCC-4279C43AB355}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20:D21 J1:J1048576" xr:uid="{39CDAD1A-527D-8A43-BFCC-4279C43AB355}">
       <formula1>"csv,json,parquet,avro,table,snowflake,redshift,adls,s3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20:D1048576 D12:D17 D1:D10" xr:uid="{0251E4F9-1266-42BB-802C-E032AD2F255C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D22:D1048576 D14:D19 D1:D12" xr:uid="{0251E4F9-1266-42BB-802C-E032AD2F255C}">
       <formula1>"csv,json,parquet,avro,table,redshift,snowflake,adls,s3"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{A736D6D3-E056-442B-8A93-B37F82E798F4}">
       <formula1>"count_check,duplicate,null_value_check,uniqueness_check,records_present_only_in_source,records_present_only_target,data_compare,schema_check,name_check,column_range_check,column_value_reference_check"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11" xr:uid="{6E83B623-DA5A-4C78-A5F1-52A03CE1643E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13" xr:uid="{6E83B623-DA5A-4C78-A5F1-52A03CE1643E}">
       <formula1>"csv,json,parquet,avro,table,redshift,snowflake,adls,s3,dat"</formula1>
     </dataValidation>
   </dataValidations>

--- a/config/Master_Test_Template.xlsx
+++ b/config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\test_automation_project\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730F7493-0651-4299-A4AD-6BC69ECE99AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5072CC6-8531-44FD-8721-E146CB0D2598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -277,12 +277,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -527,92 +534,95 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -625,17 +635,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -936,7 +946,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W1" sqref="W1"/>
+      <selection pane="bottomRight" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -960,7 +970,7 @@
     <col min="17" max="17" width="26.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="7.77734375" style="2" bestFit="1" customWidth="1"/>
@@ -1010,7 +1020,7 @@
       <c r="N1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="O1" s="43" t="s">
         <v>6</v>
       </c>
       <c r="P1" s="6" t="s">
@@ -1092,7 +1102,7 @@
       </c>
       <c r="R2" s="20"/>
       <c r="S2" s="1" t="s">
-        <v>67</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1548,7 +1558,7 @@
       </c>
       <c r="R10" s="20"/>
       <c r="S10" s="1" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="T10" s="42" t="s">
         <v>81</v>
@@ -2496,7 +2506,7 @@
       <c r="S39" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="29" type="noConversion"/>
+  <phoneticPr fontId="30" type="noConversion"/>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S39" xr:uid="{53648117-6315-BD4B-95C3-AF9A5887C458}">
       <formula1>"Y,N"</formula1>

--- a/config/Master_Test_Template.xlsx
+++ b/config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\test_automation_project\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5072CC6-8531-44FD-8721-E146CB0D2598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D798E6-CADA-4D32-90CF-808AF41638B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -556,22 +556,19 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -587,6 +584,9 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -599,27 +599,27 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -630,9 +630,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -641,8 +638,11 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -943,10 +943,10 @@
   <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S2" sqref="S2"/>
+      <selection pane="bottomRight" activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -990,16 +990,16 @@
       <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="31" t="s">
         <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1008,34 +1008,34 @@
       <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="29" t="s">
         <v>49</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>24</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="O1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="38" t="s">
+      <c r="Q1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="42" t="s">
+      <c r="T1" s="41" t="s">
         <v>21</v>
       </c>
       <c r="U1" s="2" t="s">
@@ -1049,7 +1049,7 @@
       </c>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1073,7 +1073,7 @@
       <c r="H2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="33" t="s">
         <v>64</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -1085,28 +1085,28 @@
       <c r="L2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="25" t="s">
         <v>17</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="39" t="s">
+      <c r="O2" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="P2" s="37" t="s">
+      <c r="P2" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="Q2" s="38" t="s">
+      <c r="Q2" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="R2" s="20"/>
+      <c r="R2" s="19"/>
       <c r="S2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1130,7 +1130,7 @@
       <c r="H3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="33" t="s">
         <v>64</v>
       </c>
       <c r="J3" s="3" t="s">
@@ -1142,28 +1142,28 @@
       <c r="L3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="25" t="s">
         <v>17</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="39" t="s">
+      <c r="O3" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="P3" s="37" t="s">
+      <c r="P3" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="Q3" s="38" t="s">
+      <c r="Q3" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="R3" s="20"/>
+      <c r="R3" s="19"/>
       <c r="S3" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1187,7 +1187,7 @@
       <c r="H4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="33" t="s">
         <v>64</v>
       </c>
       <c r="J4" s="3" t="s">
@@ -1199,28 +1199,28 @@
       <c r="L4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="25" t="s">
         <v>17</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="39" t="s">
+      <c r="O4" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="P4" s="37" t="s">
+      <c r="P4" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="Q4" s="38" t="s">
+      <c r="Q4" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="R4" s="20"/>
+      <c r="R4" s="19"/>
       <c r="S4" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="25" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1244,7 +1244,7 @@
       <c r="H5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="33" t="s">
         <v>64</v>
       </c>
       <c r="J5" s="3" t="s">
@@ -1256,28 +1256,28 @@
       <c r="L5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="26" t="s">
+      <c r="M5" s="25" t="s">
         <v>17</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="39" t="s">
+      <c r="O5" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="P5" s="37" t="s">
+      <c r="P5" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="Q5" s="38" t="s">
+      <c r="Q5" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="R5" s="20"/>
+      <c r="R5" s="19"/>
       <c r="S5" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1301,7 +1301,7 @@
       <c r="H6" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="33" t="s">
         <v>64</v>
       </c>
       <c r="J6" s="3" t="s">
@@ -1313,28 +1313,28 @@
       <c r="L6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="26" t="s">
+      <c r="M6" s="25" t="s">
         <v>17</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="39" t="s">
+      <c r="O6" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="P6" s="37" t="s">
+      <c r="P6" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="Q6" s="38" t="s">
+      <c r="Q6" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="R6" s="20"/>
+      <c r="R6" s="19"/>
       <c r="S6" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="25" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1358,7 +1358,7 @@
       <c r="H7" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="33" t="s">
         <v>64</v>
       </c>
       <c r="J7" s="3" t="s">
@@ -1370,28 +1370,28 @@
       <c r="L7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="26" t="s">
+      <c r="M7" s="25" t="s">
         <v>17</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="39" t="s">
+      <c r="O7" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="P7" s="37" t="s">
+      <c r="P7" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="Q7" s="38" t="s">
+      <c r="Q7" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="R7" s="20"/>
+      <c r="R7" s="19"/>
       <c r="S7" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="25" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1415,7 +1415,7 @@
       <c r="H8" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="33" t="s">
         <v>64</v>
       </c>
       <c r="J8" s="3" t="s">
@@ -1427,28 +1427,28 @@
       <c r="L8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="26" t="s">
+      <c r="M8" s="25" t="s">
         <v>17</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="39" t="s">
+      <c r="O8" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="P8" s="37" t="s">
+      <c r="P8" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="Q8" s="38" t="s">
+      <c r="Q8" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="R8" s="20"/>
+      <c r="R8" s="19"/>
       <c r="S8" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="39" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1472,7 +1472,7 @@
       <c r="H9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="33" t="s">
         <v>64</v>
       </c>
       <c r="J9" s="3" t="s">
@@ -1484,28 +1484,28 @@
       <c r="L9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="26" t="s">
+      <c r="M9" s="25" t="s">
         <v>17</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="39" t="s">
+      <c r="O9" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="P9" s="37" t="s">
+      <c r="P9" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="Q9" s="38" t="s">
+      <c r="Q9" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="R9" s="20"/>
+      <c r="R9" s="19"/>
       <c r="S9" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="40" t="s">
         <v>71</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1529,7 +1529,7 @@
       <c r="H10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="33" t="s">
         <v>64</v>
       </c>
       <c r="J10" s="3" t="s">
@@ -1541,29 +1541,29 @@
       <c r="L10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="26" t="s">
+      <c r="M10" s="25" t="s">
         <v>17</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O10" s="39" t="s">
+      <c r="O10" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="P10" s="37" t="s">
+      <c r="P10" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="Q10" s="38" t="s">
+      <c r="Q10" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="R10" s="20"/>
+      <c r="R10" s="19"/>
       <c r="S10" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="T10" s="42" t="s">
+      <c r="T10" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="U10" s="42"/>
+      <c r="U10" s="41"/>
       <c r="V10" s="2">
         <v>5</v>
       </c>
@@ -1572,7 +1572,7 @@
       </c>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="40" t="s">
         <v>72</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1596,7 +1596,7 @@
       <c r="H11" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="34" t="s">
+      <c r="I11" s="33" t="s">
         <v>64</v>
       </c>
       <c r="J11" s="3" t="s">
@@ -1608,28 +1608,28 @@
       <c r="L11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M11" s="26" t="s">
+      <c r="M11" s="25" t="s">
         <v>17</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O11" s="39" t="s">
+      <c r="O11" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="P11" s="37" t="s">
+      <c r="P11" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="Q11" s="38" t="s">
+      <c r="Q11" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="R11" s="20"/>
+      <c r="R11" s="19"/>
       <c r="S11" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="25" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1647,13 +1647,13 @@
       <c r="F12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="35" t="s">
+      <c r="G12" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="34" t="s">
         <v>65</v>
       </c>
       <c r="J12" s="3" t="s">
@@ -1665,28 +1665,28 @@
       <c r="L12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="26" t="s">
+      <c r="M12" s="25" t="s">
         <v>17</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="26" t="s">
+      <c r="O12" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="P12" s="27" t="s">
+      <c r="P12" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="Q12" s="28" t="s">
+      <c r="Q12" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="R12" s="12"/>
+      <c r="R12" s="11"/>
       <c r="S12" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="30" t="s">
         <v>50</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1704,13 +1704,13 @@
       <c r="F13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="35" t="s">
+      <c r="G13" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="34" t="s">
         <v>66</v>
       </c>
       <c r="J13" s="3" t="s">
@@ -1722,28 +1722,28 @@
       <c r="L13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="26" t="s">
+      <c r="M13" s="25" t="s">
         <v>17</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O13" s="26" t="s">
+      <c r="O13" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="P13" s="27" t="s">
+      <c r="P13" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="Q13" s="28" t="s">
+      <c r="Q13" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="R13" s="12"/>
+      <c r="R13" s="11"/>
       <c r="S13" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="30" t="s">
         <v>53</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1761,13 +1761,13 @@
       <c r="F14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="36" t="s">
+      <c r="H14" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="35" t="s">
         <v>56</v>
       </c>
       <c r="J14" s="3" t="s">
@@ -1779,28 +1779,28 @@
       <c r="L14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M14" s="26" t="s">
+      <c r="M14" s="25" t="s">
         <v>17</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O14" s="41" t="s">
+      <c r="O14" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="P14" s="37" t="s">
+      <c r="P14" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="Q14" s="37" t="s">
+      <c r="Q14" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="R14" s="12"/>
+      <c r="R14" s="11"/>
       <c r="S14" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="36" t="s">
         <v>70</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1818,13 +1818,13 @@
       <c r="F15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="36" t="s">
+      <c r="H15" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="35" t="s">
         <v>56</v>
       </c>
       <c r="J15" s="3" t="s">
@@ -1836,28 +1836,28 @@
       <c r="L15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M15" s="26" t="s">
+      <c r="M15" s="25" t="s">
         <v>17</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O15" s="37" t="s">
+      <c r="O15" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="P15" s="37" t="s">
+      <c r="P15" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="Q15" s="37" t="s">
+      <c r="Q15" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="R15" s="12"/>
+      <c r="R15" s="11"/>
       <c r="S15" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="30" t="s">
         <v>71</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1875,13 +1875,13 @@
       <c r="F16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="H16" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="36" t="s">
+      <c r="H16" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="35" t="s">
         <v>56</v>
       </c>
       <c r="J16" s="3" t="s">
@@ -1893,28 +1893,28 @@
       <c r="L16" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M16" s="26" t="s">
+      <c r="M16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O16" s="37" t="s">
+      <c r="O16" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="P16" s="37" t="s">
+      <c r="P16" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="Q16" s="37" t="s">
+      <c r="Q16" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="R16" s="12"/>
+      <c r="R16" s="11"/>
       <c r="S16" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="36" t="s">
         <v>72</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1932,13 +1932,13 @@
       <c r="F17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="33" t="s">
+      <c r="G17" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="H17" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="36" t="s">
+      <c r="H17" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="35" t="s">
         <v>56</v>
       </c>
       <c r="J17" s="3" t="s">
@@ -1950,28 +1950,28 @@
       <c r="L17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M17" s="26" t="s">
+      <c r="M17" s="25" t="s">
         <v>17</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O17" s="37" t="s">
+      <c r="O17" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="P17" s="37" t="s">
+      <c r="P17" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="Q17" s="37" t="s">
+      <c r="Q17" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="R17" s="12"/>
+      <c r="R17" s="11"/>
       <c r="S17" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="30" t="s">
         <v>73</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1989,13 +1989,13 @@
       <c r="F18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="H18" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="36" t="s">
+      <c r="H18" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="35" t="s">
         <v>56</v>
       </c>
       <c r="J18" s="3" t="s">
@@ -2007,28 +2007,28 @@
       <c r="L18" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M18" s="26" t="s">
+      <c r="M18" s="25" t="s">
         <v>17</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O18" s="37" t="s">
+      <c r="O18" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="P18" s="37" t="s">
+      <c r="P18" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="Q18" s="37" t="s">
+      <c r="Q18" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="R18" s="12"/>
+      <c r="R18" s="11"/>
       <c r="S18" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="36" t="s">
         <v>74</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -2046,13 +2046,13 @@
       <c r="F19" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="36" t="s">
+      <c r="H19" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="35" t="s">
         <v>56</v>
       </c>
       <c r="J19" s="3" t="s">
@@ -2064,445 +2064,445 @@
       <c r="L19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M19" s="26" t="s">
+      <c r="M19" s="25" t="s">
         <v>17</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O19" s="37" t="s">
+      <c r="O19" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="P19" s="37" t="s">
+      <c r="P19" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="Q19" s="37" t="s">
+      <c r="Q19" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="R19" s="12"/>
+      <c r="R19" s="11"/>
       <c r="S19" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="22"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="25"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="15"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="14"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="16"/>
+      <c r="I20" s="15"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="21"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="20"/>
       <c r="N20" s="3"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="22"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="21"/>
       <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="22"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="25"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="15"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="14"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="16"/>
+      <c r="I21" s="15"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="21"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="20"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="22"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="21"/>
       <c r="S21" s="1"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="22"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="4"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="15"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="22"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="21"/>
       <c r="N22" s="3"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="22"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="21"/>
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="1:20">
-      <c r="A23" s="22"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="4"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="15"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="22"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="21"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="22"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="21"/>
       <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:20">
-      <c r="A24" s="22"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="4"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="15"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="22"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="21"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="22"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="21"/>
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" s="22"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="4"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="15"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="22"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="21"/>
       <c r="N25" s="3"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="22"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="21"/>
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:20">
-      <c r="A26" s="22"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="4"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="15"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="22"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="21"/>
       <c r="N26" s="3"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="22"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="21"/>
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:20">
-      <c r="A27" s="22"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="4"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="15"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="22"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="21"/>
       <c r="N27" s="3"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="22"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="21"/>
       <c r="S27" s="1"/>
     </row>
     <row r="28" spans="1:20">
-      <c r="A28" s="22"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="4"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="15"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="22"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="21"/>
       <c r="N28" s="3"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="22"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="21"/>
       <c r="S28" s="1"/>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" s="22"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="4"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="15"/>
       <c r="J29" s="3"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="22"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="21"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="22"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="21"/>
       <c r="S29" s="1"/>
     </row>
     <row r="30" spans="1:20">
-      <c r="A30" s="22"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="4"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="15"/>
       <c r="J30" s="3"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="22"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="21"/>
       <c r="N30" s="3"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="22"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="21"/>
       <c r="S30" s="1"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="22"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="4"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="15"/>
       <c r="J31" s="3"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="22"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="21"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="22"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="21"/>
       <c r="S31" s="1"/>
     </row>
     <row r="32" spans="1:20">
-      <c r="A32" s="22"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="4"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="15"/>
       <c r="J32" s="3"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="22"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="21"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="22"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="21"/>
       <c r="S32" s="1"/>
-      <c r="T32" s="13"/>
+      <c r="T32" s="12"/>
     </row>
     <row r="33" spans="1:19">
-      <c r="A33" s="22"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="4"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="15"/>
       <c r="J33" s="3"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="22"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="21"/>
       <c r="N33" s="3"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="22"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="21"/>
       <c r="S33" s="1"/>
     </row>
     <row r="34" spans="1:19">
-      <c r="A34" s="19"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="4"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="16"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="15"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="15"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="14"/>
       <c r="N34" s="3"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="12"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="11"/>
       <c r="S34" s="1"/>
     </row>
     <row r="35" spans="1:19">
-      <c r="A35" s="19"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="4"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="16"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="15"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="15"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="14"/>
       <c r="N35" s="3"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="12"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="11"/>
       <c r="S35" s="1"/>
     </row>
     <row r="36" spans="1:19">
-      <c r="A36" s="19"/>
+      <c r="A36" s="18"/>
       <c r="B36" s="4"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="16"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="15"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="15"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="14"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="12"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="11"/>
       <c r="S36" s="1"/>
     </row>
     <row r="37" spans="1:19">
-      <c r="A37" s="19"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="4"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="16"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="15"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="15"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="14"/>
       <c r="N37" s="3"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="12"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="11"/>
       <c r="S37" s="1"/>
     </row>
     <row r="38" spans="1:19">
-      <c r="A38" s="19"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="4"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="16"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="15"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="15"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="14"/>
       <c r="N38" s="3"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="12"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="11"/>
       <c r="S38" s="1"/>
     </row>
     <row r="39" spans="1:19">
-      <c r="A39" s="19"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="4"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="16"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="15"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="15"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="14"/>
       <c r="N39" s="3"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="12"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="11"/>
       <c r="S39" s="1"/>
     </row>
   </sheetData>
@@ -2557,34 +2557,34 @@
       <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="24" t="s">
         <v>35</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="25" t="s">
         <v>17</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="L3" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="28" t="s">
+      <c r="M3" s="27" t="s">
         <v>39</v>
       </c>
       <c r="N3" t="s">

--- a/config/Master_Test_Template.xlsx
+++ b/config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\test_automation_project\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D798E6-CADA-4D32-90CF-808AF41638B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA96CD6-9340-4E33-B0BF-A18A815DD1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,9 +210,6 @@
     <t>contact_info_schema.json</t>
   </si>
   <si>
-    <t>Contact_info.csv</t>
-  </si>
-  <si>
     <t>singleline.json</t>
   </si>
   <si>
@@ -271,18 +268,28 @@
   </si>
   <si>
     <t>transaction_amt</t>
+  </si>
+  <si>
+    <t>Contact_info_21092024.csv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -534,89 +541,92 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -629,17 +639,17 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -943,10 +953,10 @@
   <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T2" sqref="T2"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -1056,7 +1066,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>0</v>
@@ -1074,7 +1084,7 @@
         <v>60</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>0</v>
@@ -1091,14 +1101,14 @@
       <c r="N2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="38" t="s">
-        <v>79</v>
+      <c r="O2" s="44" t="s">
+        <v>78</v>
       </c>
       <c r="P2" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q2" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R2" s="19"/>
       <c r="S2" s="1" t="s">
@@ -1113,7 +1123,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
@@ -1131,7 +1141,7 @@
         <v>60</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>0</v>
@@ -1149,17 +1159,17 @@
         <v>17</v>
       </c>
       <c r="O3" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P3" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q3" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R3" s="19"/>
       <c r="S3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1170,7 +1180,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>0</v>
@@ -1188,7 +1198,7 @@
         <v>60</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>0</v>
@@ -1206,17 +1216,17 @@
         <v>17</v>
       </c>
       <c r="O4" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P4" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q4" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R4" s="19"/>
       <c r="S4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1227,7 +1237,7 @@
         <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>0</v>
@@ -1245,7 +1255,7 @@
         <v>60</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>0</v>
@@ -1263,17 +1273,17 @@
         <v>17</v>
       </c>
       <c r="O5" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P5" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q5" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R5" s="19"/>
       <c r="S5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1284,7 +1294,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>0</v>
@@ -1302,7 +1312,7 @@
         <v>60</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>0</v>
@@ -1320,17 +1330,17 @@
         <v>17</v>
       </c>
       <c r="O6" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P6" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q6" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R6" s="19"/>
       <c r="S6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1338,10 +1348,10 @@
         <v>44</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>0</v>
@@ -1359,7 +1369,7 @@
         <v>60</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>0</v>
@@ -1377,17 +1387,17 @@
         <v>17</v>
       </c>
       <c r="O7" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P7" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R7" s="19"/>
       <c r="S7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1395,10 +1405,10 @@
         <v>50</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>0</v>
@@ -1416,7 +1426,7 @@
         <v>60</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>0</v>
@@ -1434,17 +1444,17 @@
         <v>17</v>
       </c>
       <c r="O8" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P8" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q8" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R8" s="19"/>
       <c r="S8" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1455,7 +1465,7 @@
         <v>28</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>0</v>
@@ -1473,7 +1483,7 @@
         <v>60</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>0</v>
@@ -1491,28 +1501,28 @@
         <v>17</v>
       </c>
       <c r="O9" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P9" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q9" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R9" s="19"/>
       <c r="S9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>0</v>
@@ -1530,7 +1540,7 @@
         <v>60</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>0</v>
@@ -1548,20 +1558,20 @@
         <v>17</v>
       </c>
       <c r="O10" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P10" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q10" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R10" s="19"/>
       <c r="S10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T10" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U10" s="41"/>
       <c r="V10" s="2">
@@ -1573,13 +1583,13 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>0</v>
@@ -1597,7 +1607,7 @@
         <v>60</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>0</v>
@@ -1615,17 +1625,17 @@
         <v>17</v>
       </c>
       <c r="O11" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P11" s="36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R11" s="19"/>
       <c r="S11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1636,7 +1646,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>45</v>
@@ -1654,7 +1664,7 @@
         <v>17</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>45</v>
@@ -1682,7 +1692,7 @@
       </c>
       <c r="R12" s="11"/>
       <c r="S12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1693,7 +1703,7 @@
         <v>29</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>51</v>
@@ -1711,7 +1721,7 @@
         <v>17</v>
       </c>
       <c r="I13" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>52</v>
@@ -1739,7 +1749,7 @@
       </c>
       <c r="R13" s="11"/>
       <c r="S13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1786,22 +1796,22 @@
         <v>17</v>
       </c>
       <c r="O14" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="P14" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="P14" s="36" t="s">
-        <v>69</v>
-      </c>
       <c r="Q14" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R14" s="11"/>
       <c r="S14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>29</v>
@@ -1843,22 +1853,22 @@
         <v>17</v>
       </c>
       <c r="O15" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="P15" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="P15" s="36" t="s">
-        <v>69</v>
-      </c>
       <c r="Q15" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R15" s="11"/>
       <c r="S15" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>27</v>
@@ -1900,22 +1910,22 @@
         <v>17</v>
       </c>
       <c r="O16" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="P16" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="P16" s="36" t="s">
-        <v>69</v>
-      </c>
       <c r="Q16" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R16" s="11"/>
       <c r="S16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>26</v>
@@ -1957,22 +1967,22 @@
         <v>17</v>
       </c>
       <c r="O17" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="P17" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="P17" s="36" t="s">
-        <v>69</v>
-      </c>
       <c r="Q17" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R17" s="11"/>
       <c r="S17" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>28</v>
@@ -2014,22 +2024,22 @@
         <v>17</v>
       </c>
       <c r="O18" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="P18" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="P18" s="36" t="s">
-        <v>69</v>
-      </c>
       <c r="Q18" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R18" s="11"/>
       <c r="S18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>23</v>
@@ -2071,17 +2081,17 @@
         <v>17</v>
       </c>
       <c r="O19" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="P19" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="P19" s="36" t="s">
-        <v>69</v>
-      </c>
       <c r="Q19" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R19" s="11"/>
       <c r="S19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -2506,7 +2516,7 @@
       <c r="S39" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="30" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S39" xr:uid="{53648117-6315-BD4B-95C3-AF9A5887C458}">
       <formula1>"Y,N"</formula1>

--- a/config/Master_Test_Template.xlsx
+++ b/config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\test_automation_project\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA96CD6-9340-4E33-B0BF-A18A815DD1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C3BB8D-F1C8-4A71-BC5D-8582DB8507FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -953,10 +953,10 @@
   <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="R3" s="19"/>
       <c r="S3" s="1" t="s">
-        <v>66</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="R4" s="19"/>
       <c r="S4" s="1" t="s">
-        <v>66</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="R5" s="19"/>
       <c r="S5" s="1" t="s">
-        <v>66</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="R6" s="19"/>
       <c r="S6" s="1" t="s">
-        <v>66</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="R7" s="19"/>
       <c r="S7" s="1" t="s">
-        <v>66</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="R8" s="19"/>
       <c r="S8" s="1" t="s">
-        <v>66</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="R9" s="19"/>
       <c r="S9" s="1" t="s">
-        <v>66</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:23">

--- a/config/Master_Test_Template.xlsx
+++ b/config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\test_automation_project\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C3BB8D-F1C8-4A71-BC5D-8582DB8507FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7D2D5D-2F0E-4C58-AE5D-9FD07318209D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -956,7 +956,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S11" sqref="S11"/>
+      <selection pane="bottomRight" activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>

--- a/config/Master_Test_Template.xlsx
+++ b/config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\test_automation_project\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7D2D5D-2F0E-4C58-AE5D-9FD07318209D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63812A2D-22D2-4356-A8BD-323A2F1BC1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
     <sheet name="data_quality_checks" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_validation!$A$1:$W$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_validation!$A$1:$W$29</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="57">
   <si>
     <t>csv</t>
   </si>
@@ -162,9 +162,6 @@
     <t>FM6</t>
   </si>
   <si>
-    <t>json</t>
-  </si>
-  <si>
     <t>count_check,null_value_check,uniqueness_check,data_compare,schema_check,duplicate</t>
   </si>
   <si>
@@ -180,109 +177,44 @@
     <t>FM7</t>
   </si>
   <si>
-    <t>parquet</t>
-  </si>
-  <si>
-    <t>avro</t>
+    <t>contact_info_schema.json</t>
+  </si>
+  <si>
+    <t>Surname,middle_initial</t>
+  </si>
+  <si>
+    <t>records_present_only_in_source</t>
+  </si>
+  <si>
+    <t>records_present_only_target</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t>Contact_info_21092024.csv</t>
   </si>
   <si>
     <t>FM8</t>
-  </si>
-  <si>
-    <t>snowflake</t>
-  </si>
-  <si>
-    <t>snowflake_db</t>
-  </si>
-  <si>
-    <t>CONTACT_INFO_BRONZE</t>
-  </si>
-  <si>
-    <t>SAMPLEDB.CONTACT_INFO.contact_info_raw</t>
-  </si>
-  <si>
-    <t>postgres_db</t>
-  </si>
-  <si>
-    <t>contact_info_r2b.sql</t>
-  </si>
-  <si>
-    <t>contact_info_schema.json</t>
-  </si>
-  <si>
-    <t>singleline.json</t>
-  </si>
-  <si>
-    <t>userdata1.parquet</t>
-  </si>
-  <si>
-    <t>Contact_info_t.csv</t>
-  </si>
-  <si>
-    <t>Complex2.json</t>
-  </si>
-  <si>
-    <t>userdata1.avro</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>identifier,surname</t>
-  </si>
-  <si>
-    <t>identifier,given_name</t>
-  </si>
-  <si>
-    <t>FM9</t>
-  </si>
-  <si>
-    <t>FM10</t>
-  </si>
-  <si>
-    <t>FM11</t>
-  </si>
-  <si>
-    <t>FM12</t>
-  </si>
-  <si>
-    <t>FM13</t>
-  </si>
-  <si>
-    <t>identifier,surname,given_name</t>
-  </si>
-  <si>
-    <t>Surname,middle_initial</t>
-  </si>
-  <si>
-    <t>records_present_only_in_source</t>
-  </si>
-  <si>
-    <t>records_present_only_target</t>
-  </si>
-  <si>
-    <t>identifier</t>
-  </si>
-  <si>
-    <t>name_check</t>
-  </si>
-  <si>
-    <t>transaction_amt</t>
-  </si>
-  <si>
-    <t>Contact_info_21092024.csv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -545,85 +477,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -636,41 +571,38 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -950,13 +882,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S5" sqref="S5"/>
+      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -1001,7 +933,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>15</v>
@@ -1019,7 +951,7 @@
         <v>14</v>
       </c>
       <c r="K1" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>16</v>
@@ -1030,13 +962,13 @@
       <c r="N1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="O1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="43" t="s">
+      <c r="P1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="Q1" s="36" t="s">
         <v>8</v>
       </c>
       <c r="R1" s="9" t="s">
@@ -1045,7 +977,7 @@
       <c r="S1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="41" t="s">
+      <c r="T1" s="39" t="s">
         <v>21</v>
       </c>
       <c r="U1" s="2" t="s">
@@ -1066,7 +998,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>0</v>
@@ -1081,10 +1013,10 @@
         <v>17</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>0</v>
@@ -1095,20 +1027,20 @@
       <c r="L2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="25" t="s">
-        <v>17</v>
+      <c r="M2" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="P2" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q2" s="37" t="s">
-        <v>74</v>
+      <c r="O2" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="43" t="s">
+        <v>54</v>
       </c>
       <c r="R2" s="19"/>
       <c r="S2" s="1" t="s">
@@ -1123,7 +1055,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
@@ -1138,10 +1070,10 @@
         <v>17</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>0</v>
@@ -1152,20 +1084,20 @@
       <c r="L3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="25" t="s">
-        <v>17</v>
+      <c r="M3" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="P3" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q3" s="37" t="s">
-        <v>74</v>
+      <c r="O3" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="P3" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q3" s="43" t="s">
+        <v>54</v>
       </c>
       <c r="R3" s="19"/>
       <c r="S3" s="1" t="s">
@@ -1180,7 +1112,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>0</v>
@@ -1195,10 +1127,10 @@
         <v>17</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>0</v>
@@ -1209,20 +1141,20 @@
       <c r="L4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="25" t="s">
-        <v>17</v>
+      <c r="M4" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="P4" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q4" s="37" t="s">
-        <v>74</v>
+      <c r="O4" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q4" s="43" t="s">
+        <v>54</v>
       </c>
       <c r="R4" s="19"/>
       <c r="S4" s="1" t="s">
@@ -1237,7 +1169,7 @@
         <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>0</v>
@@ -1252,10 +1184,10 @@
         <v>17</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>0</v>
@@ -1266,20 +1198,20 @@
       <c r="L5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="25" t="s">
-        <v>17</v>
+      <c r="M5" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="P5" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q5" s="37" t="s">
-        <v>74</v>
+      <c r="O5" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="P5" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q5" s="43" t="s">
+        <v>54</v>
       </c>
       <c r="R5" s="19"/>
       <c r="S5" s="1" t="s">
@@ -1294,7 +1226,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>0</v>
@@ -1309,10 +1241,10 @@
         <v>17</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>0</v>
@@ -1323,20 +1255,20 @@
       <c r="L6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="25" t="s">
-        <v>17</v>
+      <c r="M6" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="P6" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q6" s="37" t="s">
-        <v>74</v>
+      <c r="O6" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="P6" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q6" s="43" t="s">
+        <v>54</v>
       </c>
       <c r="R6" s="19"/>
       <c r="S6" s="1" t="s">
@@ -1348,10 +1280,10 @@
         <v>44</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>0</v>
@@ -1366,10 +1298,10 @@
         <v>17</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>0</v>
@@ -1380,20 +1312,20 @@
       <c r="L7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="25" t="s">
-        <v>17</v>
+      <c r="M7" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="P7" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q7" s="37" t="s">
-        <v>74</v>
+      <c r="O7" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="P7" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q7" s="43" t="s">
+        <v>54</v>
       </c>
       <c r="R7" s="19"/>
       <c r="S7" s="1" t="s">
@@ -1402,13 +1334,13 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>0</v>
@@ -1423,10 +1355,10 @@
         <v>17</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>0</v>
@@ -1437,20 +1369,20 @@
       <c r="L8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="25" t="s">
-        <v>17</v>
+      <c r="M8" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="P8" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q8" s="37" t="s">
-        <v>74</v>
+      <c r="O8" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="P8" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q8" s="43" t="s">
+        <v>54</v>
       </c>
       <c r="R8" s="19"/>
       <c r="S8" s="1" t="s">
@@ -1458,14 +1390,14 @@
       </c>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="39" t="s">
-        <v>53</v>
+      <c r="A9" s="44" t="s">
+        <v>56</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>0</v>
@@ -1480,10 +1412,10 @@
         <v>17</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>0</v>
@@ -1494,20 +1426,20 @@
       <c r="L9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M9" s="25" t="s">
-        <v>17</v>
+      <c r="M9" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="P9" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q9" s="37" t="s">
-        <v>74</v>
+      <c r="O9" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q9" s="43" t="s">
+        <v>54</v>
       </c>
       <c r="R9" s="19"/>
       <c r="S9" s="1" t="s">
@@ -1515,624 +1447,254 @@
       </c>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O10" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="P10" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q10" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="R10" s="19"/>
-      <c r="S10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="T10" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="U10" s="41"/>
-      <c r="V10" s="2">
-        <v>5</v>
-      </c>
-      <c r="W10" s="2">
-        <v>100</v>
-      </c>
+      <c r="A10" s="25"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O11" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="P11" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q11" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="R11" s="19"/>
-      <c r="S11" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="A11" s="30"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="K12" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M12" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O12" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="P12" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q12" s="27" t="s">
-        <v>39</v>
-      </c>
+      <c r="A12" s="30"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
       <c r="R12" s="11"/>
-      <c r="S12" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M13" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O13" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="P13" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q13" s="27" t="s">
-        <v>39</v>
-      </c>
+      <c r="A13" s="35"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
       <c r="R13" s="11"/>
-      <c r="S13" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M14" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O14" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="P14" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q14" s="36" t="s">
-        <v>67</v>
-      </c>
+      <c r="A14" s="30"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
       <c r="R14" s="11"/>
-      <c r="S14" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="S14" s="1"/>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M15" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O15" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="P15" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q15" s="36" t="s">
-        <v>67</v>
-      </c>
+      <c r="A15" s="35"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
       <c r="R15" s="11"/>
-      <c r="S15" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O16" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="P16" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q16" s="36" t="s">
-        <v>67</v>
-      </c>
+      <c r="A16" s="30"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
       <c r="R16" s="11"/>
-      <c r="S16" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="S16" s="1"/>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M17" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O17" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="P17" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q17" s="36" t="s">
-        <v>67</v>
-      </c>
+      <c r="A17" s="35"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
       <c r="R17" s="11"/>
-      <c r="S17" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="S17" s="1"/>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M18" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O18" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="P18" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q18" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="R18" s="11"/>
-      <c r="S18" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="A18" s="21"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M19" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O19" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="P19" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q19" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="R19" s="11"/>
-      <c r="S19" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="A19" s="21"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="1"/>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="21"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="24"/>
+      <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="3"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="21"/>
       <c r="I20" s="15"/>
       <c r="J20" s="3"/>
       <c r="K20" s="16"/>
       <c r="L20" s="16"/>
-      <c r="M20" s="20"/>
+      <c r="M20" s="21"/>
       <c r="N20" s="3"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="10"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="23"/>
       <c r="R20" s="21"/>
       <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="21"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="24"/>
+      <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="3"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="21"/>
       <c r="I21" s="15"/>
       <c r="J21" s="3"/>
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
-      <c r="M21" s="20"/>
+      <c r="M21" s="21"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="10"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="23"/>
       <c r="R21" s="21"/>
       <c r="S21" s="1"/>
     </row>
@@ -2324,6 +1886,7 @@
       <c r="Q30" s="23"/>
       <c r="R30" s="21"/>
       <c r="S30" s="1"/>
+      <c r="T30" s="12"/>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="21"/>
@@ -2347,46 +1910,45 @@
       <c r="S31" s="1"/>
     </row>
     <row r="32" spans="1:20">
-      <c r="A32" s="21"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="4"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="21"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="17"/>
       <c r="I32" s="15"/>
       <c r="J32" s="3"/>
-      <c r="K32" s="16"/>
+      <c r="K32" s="3"/>
       <c r="L32" s="16"/>
-      <c r="M32" s="21"/>
+      <c r="M32" s="14"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="21"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="11"/>
       <c r="S32" s="1"/>
-      <c r="T32" s="12"/>
     </row>
     <row r="33" spans="1:19">
-      <c r="A33" s="21"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="4"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="21"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="17"/>
       <c r="I33" s="15"/>
       <c r="J33" s="3"/>
-      <c r="K33" s="16"/>
+      <c r="K33" s="3"/>
       <c r="L33" s="16"/>
-      <c r="M33" s="21"/>
+      <c r="M33" s="14"/>
       <c r="N33" s="3"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="21"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="11"/>
       <c r="S33" s="1"/>
     </row>
     <row r="34" spans="1:19">
@@ -2473,65 +2035,23 @@
       <c r="R37" s="11"/>
       <c r="S37" s="1"/>
     </row>
-    <row r="38" spans="1:19">
-      <c r="A38" s="18"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="1"/>
-    </row>
-    <row r="39" spans="1:19">
-      <c r="A39" s="18"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="1"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="32" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S39" xr:uid="{53648117-6315-BD4B-95C3-AF9A5887C458}">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20:D21 J1:J1048576" xr:uid="{39CDAD1A-527D-8A43-BFCC-4279C43AB355}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18:D19 J1:J1048576" xr:uid="{39CDAD1A-527D-8A43-BFCC-4279C43AB355}">
       <formula1>"csv,json,parquet,avro,table,snowflake,redshift,adls,s3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D22:D1048576 D14:D19 D1:D12" xr:uid="{0251E4F9-1266-42BB-802C-E032AD2F255C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20:D1048576 D12:D17 D1:D10" xr:uid="{0251E4F9-1266-42BB-802C-E032AD2F255C}">
       <formula1>"csv,json,parquet,avro,table,redshift,snowflake,adls,s3"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11" xr:uid="{6E83B623-DA5A-4C78-A5F1-52A03CE1643E}">
+      <formula1>"csv,json,parquet,avro,table,redshift,snowflake,adls,s3,dat"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S37" xr:uid="{53648117-6315-BD4B-95C3-AF9A5887C458}">
+      <formula1>"Y,N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{A736D6D3-E056-442B-8A93-B37F82E798F4}">
       <formula1>"count_check,duplicate,null_value_check,uniqueness_check,records_present_only_in_source,records_present_only_target,data_compare,schema_check,name_check,column_range_check,column_value_reference_check"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13" xr:uid="{6E83B623-DA5A-4C78-A5F1-52A03CE1643E}">
-      <formula1>"csv,json,parquet,avro,table,redshift,snowflake,adls,s3,dat"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2554,7 +2074,7 @@
   <sheetData>
     <row r="2" spans="1:14">
       <c r="N2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -2598,7 +2118,7 @@
         <v>39</v>
       </c>
       <c r="N3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/config/Master_Test_Template.xlsx
+++ b/config/Master_Test_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\test_automation_project\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/PycharmProjects/test_automation_project1/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63812A2D-22D2-4356-A8BD-323A2F1BC1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F75B10-6D07-1147-B022-5C8A03BE82F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_validation" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="63">
   <si>
     <t>csv</t>
   </si>
@@ -33,9 +33,6 @@
     <t>exclude_columns</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>target_transformation_query_path</t>
   </si>
   <si>
@@ -196,13 +193,34 @@
   </si>
   <si>
     <t>FM8</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>FM9</t>
+  </si>
+  <si>
+    <t>adls</t>
+  </si>
+  <si>
+    <t>master/yellowcabs/trip_data</t>
+  </si>
+  <si>
+    <t>yellow_taxi</t>
+  </si>
+  <si>
+    <t>snowflake_db</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="36">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,6 +467,12 @@
       <color rgb="FF6AAB73"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFCE9178"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -473,7 +497,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -606,6 +630,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -884,584 +911,614 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="90.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="90.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="30" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="24" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="K1" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="L1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="M1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="40" t="s">
+      <c r="P1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="Q1" s="36" t="s">
         <v>7</v>
-      </c>
-      <c r="Q1" s="36" t="s">
-        <v>8</v>
       </c>
       <c r="R1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T1" s="39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" s="35" t="s">
-        <v>51</v>
-      </c>
       <c r="Q2" s="43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R2" s="19"/>
       <c r="S2" s="1" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="P3" s="35" t="s">
-        <v>51</v>
-      </c>
       <c r="Q3" s="43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R3" s="19"/>
       <c r="S3" s="1" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="P4" s="35" t="s">
-        <v>51</v>
-      </c>
       <c r="Q4" s="43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R4" s="19"/>
       <c r="S4" s="1" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="P5" s="35" t="s">
-        <v>51</v>
-      </c>
       <c r="Q5" s="43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R5" s="19"/>
       <c r="S5" s="1" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="N6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="P6" s="35" t="s">
-        <v>51</v>
-      </c>
       <c r="Q6" s="43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R6" s="19"/>
       <c r="S6" s="1" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O7" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="P7" s="35" t="s">
-        <v>51</v>
-      </c>
       <c r="Q7" s="43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R7" s="19"/>
       <c r="S7" s="1" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O8" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="P8" s="35" t="s">
-        <v>51</v>
-      </c>
       <c r="Q8" s="43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R8" s="19"/>
       <c r="S8" s="1" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O9" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="P9" s="35" t="s">
-        <v>51</v>
-      </c>
       <c r="Q9" s="43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R9" s="19"/>
       <c r="S9" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10" s="25"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="25"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="17">
+      <c r="A10" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="44" t="s">
+        <v>62</v>
+      </c>
       <c r="P10" s="26"/>
       <c r="Q10" s="27"/>
       <c r="R10" s="11"/>
@@ -2067,58 +2124,58 @@
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="14" max="14" width="75.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="75.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14">
       <c r="N2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="F3" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="G3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="16" t="s">
+      <c r="I3" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="25" t="s">
+      <c r="L3" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="M3" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="27" t="s">
-        <v>39</v>
-      </c>
       <c r="N3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2140,7 +2197,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/config/Master_Test_Template.xlsx
+++ b/config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/PycharmProjects/test_automation_project1/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F75B10-6D07-1147-B022-5C8A03BE82F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432119A4-9AEE-F447-A02D-A99699953CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="64">
   <si>
     <t>csv</t>
   </si>
@@ -33,6 +33,9 @@
     <t>exclude_columns</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>target_transformation_query_path</t>
   </si>
   <si>
@@ -204,9 +207,6 @@
     <t>adls</t>
   </si>
   <si>
-    <t>master/yellowcabs/trip_data</t>
-  </si>
-  <si>
     <t>yellow_taxi</t>
   </si>
   <si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>master/yellowcabs/trip_data/202403</t>
   </si>
 </sst>
 </file>
@@ -912,10 +915,10 @@
   <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -948,573 +951,573 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>2</v>
-      </c>
       <c r="O1" s="40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P1" s="41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q1" s="36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T1" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O2" s="42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" s="35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q2" s="43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R2" s="19"/>
       <c r="S2" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O3" s="37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" s="35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q3" s="43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R3" s="19"/>
       <c r="S3" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O4" s="37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" s="35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q4" s="43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R4" s="19"/>
       <c r="S4" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O5" s="37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" s="35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q5" s="43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R5" s="19"/>
       <c r="S5" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O6" s="37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" s="35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q6" s="43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R6" s="19"/>
       <c r="S6" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O7" s="37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" s="35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q7" s="43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R7" s="19"/>
       <c r="S7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O8" s="37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" s="35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q8" s="43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R8" s="19"/>
       <c r="S8" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O9" s="37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" s="35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q9" s="43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R9" s="19"/>
       <c r="S9" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="17">
       <c r="A10" s="44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G10" s="44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H10" s="44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I10" s="33" t="s">
         <v>60</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L10" s="16" t="s">
         <v>61</v>
       </c>
       <c r="M10" s="44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O10" s="44" t="s">
         <v>62</v>
@@ -1522,7 +1525,9 @@
       <c r="P10" s="26"/>
       <c r="Q10" s="27"/>
       <c r="R10" s="11"/>
-      <c r="S10" s="1"/>
+      <c r="S10" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="30"/>
@@ -2131,51 +2136,51 @@
   <sheetData>
     <row r="2" spans="1:14">
       <c r="N2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="H3" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K3" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L3" s="26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/config/Master_Test_Template.xlsx
+++ b/config/Master_Test_Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/PycharmProjects/test_automation_project1/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/PycharmProjects/test_automation_project/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432119A4-9AEE-F447-A02D-A99699953CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6277F299-1AFB-374A-999C-8F70AB13926B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_validation" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="65">
   <si>
     <t>csv</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>master/yellowcabs/trip_data/202403</t>
+  </si>
+  <si>
+    <t>snowflake</t>
   </si>
 </sst>
 </file>
@@ -915,10 +918,10 @@
   <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -1505,7 +1508,7 @@
         <v>60</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>17</v>

--- a/config/Master_Test_Template.xlsx
+++ b/config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/PycharmProjects/test_automation_project/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6277F299-1AFB-374A-999C-8F70AB13926B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB14E76-153B-D746-8D0C-B0B657F990C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,14 @@
     <sheet name="data_quality_checks" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_validation!$A$1:$W$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_validation!$A$1:$W$34</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="99">
   <si>
     <t>csv</t>
   </si>
@@ -220,60 +220,120 @@
   </si>
   <si>
     <t>snowflake</t>
+  </si>
+  <si>
+    <t>FM10</t>
+  </si>
+  <si>
+    <t>master/yellowcabs/taxi_zone/taxi_zones.csv</t>
+  </si>
+  <si>
+    <t>TAXI_ZONES</t>
+  </si>
+  <si>
+    <t>LATITUDE,LONGITUDE,LOCATIONID</t>
+  </si>
+  <si>
+    <t>FM11</t>
+  </si>
+  <si>
+    <t>FM12</t>
+  </si>
+  <si>
+    <t>FM13</t>
+  </si>
+  <si>
+    <t>FM14</t>
+  </si>
+  <si>
+    <t>FM15</t>
+  </si>
+  <si>
+    <t>FM16</t>
+  </si>
+  <si>
+    <t>FM17</t>
+  </si>
+  <si>
+    <t>LOCATIONID</t>
+  </si>
+  <si>
+    <t>FM18</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>customer_scd1_expected_data_setup.py</t>
+  </si>
+  <si>
+    <t>CUSTOMER_ID</t>
+  </si>
+  <si>
+    <t>master/customer/full_load/customers.csv</t>
+  </si>
+  <si>
+    <t>FM19</t>
+  </si>
+  <si>
+    <t>FM20</t>
+  </si>
+  <si>
+    <t>FM21</t>
+  </si>
+  <si>
+    <t>FM22</t>
+  </si>
+  <si>
+    <t>FM23</t>
+  </si>
+  <si>
+    <t>FM24</t>
+  </si>
+  <si>
+    <t>FM25</t>
+  </si>
+  <si>
+    <t>FM26</t>
+  </si>
+  <si>
+    <t>CUSTOMERS_EXPECTED</t>
+  </si>
+  <si>
+    <t>FM27</t>
+  </si>
+  <si>
+    <t>FM28</t>
+  </si>
+  <si>
+    <t>FM29</t>
+  </si>
+  <si>
+    <t>FM30</t>
+  </si>
+  <si>
+    <t>FM31</t>
+  </si>
+  <si>
+    <t>CUSTOMER_HIST_EXPECTED</t>
+  </si>
+  <si>
+    <t>customer_scd2_expected_data_setup.py</t>
+  </si>
+  <si>
+    <t>CUSTOMER_HIST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="37">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -474,19 +534,31 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FFCE9178"/>
-      <name val="Menlo"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -503,112 +575,94 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -637,8 +691,68 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -915,13 +1029,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W37"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="P7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomRight" activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -932,7 +1046,7 @@
     <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="90.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5" style="2" bestFit="1" customWidth="1"/>
@@ -940,8 +1054,7 @@
     <col min="12" max="12" width="14.5" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="30" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="26.5" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.5" style="2" bestFit="1" customWidth="1"/>
@@ -965,16 +1078,16 @@
       <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="28" t="s">
         <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -983,7 +1096,7 @@
       <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="26" t="s">
         <v>48</v>
       </c>
       <c r="L1" s="5" t="s">
@@ -995,22 +1108,22 @@
       <c r="N1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="40" t="s">
+      <c r="O1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="P1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="Q1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="38" t="s">
         <v>1</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="39" t="s">
+      <c r="T1" s="33" t="s">
         <v>21</v>
       </c>
       <c r="U1" s="2" t="s">
@@ -1024,7 +1137,7 @@
       </c>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1048,7 +1161,7 @@
       <c r="H2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="29" t="s">
         <v>55</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -1066,22 +1179,22 @@
       <c r="N2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="42" t="s">
+      <c r="O2" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="P2" s="35" t="s">
+      <c r="P2" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="R2" s="19"/>
+      <c r="R2" s="18"/>
       <c r="S2" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="23" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1105,7 +1218,7 @@
       <c r="H3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="29" t="s">
         <v>55</v>
       </c>
       <c r="J3" s="3" t="s">
@@ -1123,22 +1236,22 @@
       <c r="N3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="37" t="s">
+      <c r="O3" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="P3" s="35" t="s">
+      <c r="P3" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="Q3" s="43" t="s">
+      <c r="Q3" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="R3" s="19"/>
+      <c r="R3" s="18"/>
       <c r="S3" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="23" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1162,7 +1275,7 @@
       <c r="H4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="29" t="s">
         <v>55</v>
       </c>
       <c r="J4" s="3" t="s">
@@ -1180,22 +1293,22 @@
       <c r="N4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="37" t="s">
+      <c r="O4" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="35" t="s">
+      <c r="P4" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="Q4" s="43" t="s">
+      <c r="Q4" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="R4" s="19"/>
+      <c r="R4" s="18"/>
       <c r="S4" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="23" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1219,7 +1332,7 @@
       <c r="H5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="29" t="s">
         <v>55</v>
       </c>
       <c r="J5" s="3" t="s">
@@ -1237,22 +1350,22 @@
       <c r="N5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="37" t="s">
+      <c r="O5" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="P5" s="35" t="s">
+      <c r="P5" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="Q5" s="43" t="s">
+      <c r="Q5" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="R5" s="19"/>
+      <c r="R5" s="18"/>
       <c r="S5" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="23" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1276,7 +1389,7 @@
       <c r="H6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="29" t="s">
         <v>55</v>
       </c>
       <c r="J6" s="3" t="s">
@@ -1294,22 +1407,22 @@
       <c r="N6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="37" t="s">
+      <c r="O6" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="35" t="s">
+      <c r="P6" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="Q6" s="43" t="s">
+      <c r="Q6" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="R6" s="19"/>
+      <c r="R6" s="18"/>
       <c r="S6" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="23" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1333,7 +1446,7 @@
       <c r="H7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="29" t="s">
         <v>55</v>
       </c>
       <c r="J7" s="3" t="s">
@@ -1351,22 +1464,22 @@
       <c r="N7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="37" t="s">
+      <c r="O7" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="P7" s="35" t="s">
+      <c r="P7" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="Q7" s="43" t="s">
+      <c r="Q7" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="R7" s="19"/>
+      <c r="R7" s="18"/>
       <c r="S7" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="23" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1390,7 +1503,7 @@
       <c r="H8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="29" t="s">
         <v>55</v>
       </c>
       <c r="J8" s="3" t="s">
@@ -1408,22 +1521,22 @@
       <c r="N8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="37" t="s">
+      <c r="O8" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="P8" s="35" t="s">
+      <c r="P8" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="43" t="s">
+      <c r="Q8" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="R8" s="19"/>
+      <c r="R8" s="18"/>
       <c r="S8" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="38" t="s">
         <v>56</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1447,7 +1560,7 @@
       <c r="H9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="33" t="s">
+      <c r="I9" s="29" t="s">
         <v>55</v>
       </c>
       <c r="J9" s="3" t="s">
@@ -1465,28 +1578,28 @@
       <c r="N9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="37" t="s">
+      <c r="O9" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="P9" s="35" t="s">
+      <c r="P9" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="Q9" s="43" t="s">
+      <c r="Q9" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="R9" s="19"/>
+      <c r="R9" s="18"/>
       <c r="S9" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="17">
-      <c r="A10" s="44" t="s">
+    <row r="10" spans="1:23">
+      <c r="A10" s="38" t="s">
         <v>58</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -1495,16 +1608,16 @@
       <c r="E10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="33" t="s">
+      <c r="G10" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="29" t="s">
         <v>60</v>
       </c>
       <c r="J10" s="3" t="s">
@@ -1513,606 +1626,1587 @@
       <c r="K10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="L10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M10" s="44" t="s">
+      <c r="M10" s="38" t="s">
         <v>17</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O10" s="44" t="s">
+      <c r="O10" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="11"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="38" t="s">
+        <v>17</v>
+      </c>
       <c r="S10" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M11" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q11" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q12" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M13" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q13" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="R13" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M14" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q14" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M15" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="P15" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q15" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="R15" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M16" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="P16" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q16" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="R16" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M17" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O17" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="P17" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q17" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="R17" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M18" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O18" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q18" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="R18" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" s="45" customFormat="1">
+      <c r="A19" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="J19" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="K19" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="M19" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="O19" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="P19" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q19" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="R19" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="S19" s="44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" s="45" customFormat="1">
+      <c r="A20" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="J20" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="K20" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="M20" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="N20" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="O20" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="P20" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q20" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="R20" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="S20" s="44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" s="45" customFormat="1">
+      <c r="A21" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="J21" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="K21" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="M21" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="O21" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="P21" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q21" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="R21" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="S21" s="44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" s="45" customFormat="1">
+      <c r="A22" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="J22" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="K22" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="M22" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="O22" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="P22" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q22" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="R22" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="S22" s="44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" s="45" customFormat="1">
+      <c r="A23" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="J23" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="K23" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="M23" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="N23" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="O23" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="P23" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q23" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="R23" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="S23" s="44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" s="52" customFormat="1">
+      <c r="A24" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="H24" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="J24" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="K24" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="M24" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="N24" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="O24" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="P24" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q24" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="R24" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="S24" s="51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" s="52" customFormat="1">
+      <c r="A25" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="J25" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="K25" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="M25" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="N25" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="O25" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="P25" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q25" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="R25" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="S25" s="51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" s="52" customFormat="1">
+      <c r="A26" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="J26" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="K26" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="M26" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="N26" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="O26" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="P26" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q26" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="R26" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="S26" s="51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" s="52" customFormat="1">
+      <c r="A27" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="J27" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="K27" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="M27" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="N27" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="O27" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="P27" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q27" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="R27" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="S27" s="51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" s="52" customFormat="1">
+      <c r="A28" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="H28" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="J28" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="K28" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="M28" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="N28" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="O28" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="P28" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q28" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="R28" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="S28" s="51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" s="59" customFormat="1">
+      <c r="A29" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="H29" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="J29" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="K29" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="M29" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="N29" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="O29" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P29" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q29" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="R29" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="S29" s="58" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
-      <c r="A11" s="30"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="1"/>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="A12" s="30"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="1"/>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" s="35"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="1"/>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="A14" s="30"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="1"/>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="A15" s="35"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="1"/>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="A16" s="30"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="1"/>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" s="35"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="1"/>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" s="21"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="1"/>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" s="21"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="1"/>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" s="21"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="1"/>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" s="21"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="1"/>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" s="21"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="1"/>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" s="21"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="1"/>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" s="21"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="1"/>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" s="21"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="1"/>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" s="21"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="1"/>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" s="21"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="1"/>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" s="21"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="1"/>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" s="21"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="1"/>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" s="21"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="12"/>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" s="21"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="1"/>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" s="18"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="1"/>
-    </row>
-    <row r="33" spans="1:19">
-      <c r="A33" s="18"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="1"/>
-    </row>
-    <row r="34" spans="1:19">
-      <c r="A34" s="18"/>
+    <row r="30" spans="1:19" s="59" customFormat="1">
+      <c r="A30" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="H30" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="J30" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="K30" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="M30" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="N30" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="O30" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P30" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q30" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="R30" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="S30" s="58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" s="59" customFormat="1">
+      <c r="A31" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="H31" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="J31" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="K31" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="M31" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="N31" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="O31" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P31" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q31" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="R31" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="S31" s="58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" s="59" customFormat="1">
+      <c r="A32" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="H32" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="J32" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="K32" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="M32" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="N32" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="O32" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P32" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q32" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="R32" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="S32" s="58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" s="59" customFormat="1">
+      <c r="A33" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="H33" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="J33" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="K33" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="M33" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="N33" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="O33" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P33" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q33" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="R33" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="S33" s="58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="19"/>
       <c r="B34" s="4"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="14"/>
       <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="14"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="19"/>
       <c r="N34" s="3"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="11"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="19"/>
       <c r="S34" s="1"/>
     </row>
-    <row r="35" spans="1:19">
-      <c r="A35" s="18"/>
+    <row r="35" spans="1:20">
+      <c r="A35" s="19"/>
       <c r="B35" s="4"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="14"/>
       <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="14"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="19"/>
       <c r="N35" s="3"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="11"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="19"/>
       <c r="S35" s="1"/>
-    </row>
-    <row r="36" spans="1:19">
-      <c r="A36" s="18"/>
+      <c r="T35" s="11"/>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="19"/>
       <c r="B36" s="4"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="14"/>
       <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="14"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="19"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="11"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="19"/>
       <c r="S36" s="1"/>
     </row>
-    <row r="37" spans="1:19">
-      <c r="A37" s="18"/>
+    <row r="37" spans="1:20">
+      <c r="A37" s="17"/>
       <c r="B37" s="4"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="15"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="14"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="14"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="13"/>
       <c r="N37" s="3"/>
       <c r="O37" s="6"/>
       <c r="P37" s="7"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="11"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="10"/>
       <c r="S37" s="1"/>
     </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="17"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="1"/>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="17"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="1"/>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="17"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="1"/>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="17"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="1"/>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="17"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="1"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="26" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18:D19 J1:J1048576" xr:uid="{39CDAD1A-527D-8A43-BFCC-4279C43AB355}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24:D33 J1:J1048576" xr:uid="{39CDAD1A-527D-8A43-BFCC-4279C43AB355}">
       <formula1>"csv,json,parquet,avro,table,snowflake,redshift,adls,s3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20:D1048576 D12:D17 D1:D10" xr:uid="{0251E4F9-1266-42BB-802C-E032AD2F255C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D10 D34:D1048576" xr:uid="{0251E4F9-1266-42BB-802C-E032AD2F255C}">
       <formula1>"csv,json,parquet,avro,table,redshift,snowflake,adls,s3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11" xr:uid="{6E83B623-DA5A-4C78-A5F1-52A03CE1643E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11:D23" xr:uid="{6E83B623-DA5A-4C78-A5F1-52A03CE1643E}">
       <formula1>"csv,json,parquet,avro,table,redshift,snowflake,adls,s3,dat"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S37" xr:uid="{53648117-6315-BD4B-95C3-AF9A5887C458}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S42" xr:uid="{53648117-6315-BD4B-95C3-AF9A5887C458}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{A736D6D3-E056-442B-8A93-B37F82E798F4}">
@@ -2152,34 +3246,34 @@
       <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="22" t="s">
         <v>35</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="23" t="s">
         <v>17</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="L3" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="27" t="s">
+      <c r="M3" s="25" t="s">
         <v>39</v>
       </c>
       <c r="N3" t="s">

--- a/config/Master_Test_Template.xlsx
+++ b/config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/PycharmProjects/test_automation_project/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB14E76-153B-D746-8D0C-B0B657F990C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AC7488-6B83-1F40-92DF-8AD182B3607E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -216,9 +216,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>master/yellowcabs/trip_data/202403</t>
-  </si>
-  <si>
     <t>snowflake</t>
   </si>
   <si>
@@ -322,6 +319,9 @@
   </si>
   <si>
     <t>CUSTOMER_HIST</t>
+  </si>
+  <si>
+    <t>master/yellowcabs/trip_data</t>
   </si>
 </sst>
 </file>
@@ -1032,10 +1032,10 @@
   <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q16" sqref="Q16"/>
+      <selection pane="bottomRight" activeCell="G24" sqref="G24:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -1600,7 +1600,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>59</v>
@@ -1621,7 +1621,7 @@
         <v>60</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>17</v>
@@ -1649,13 +1649,13 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>59</v>
@@ -1673,10 +1673,10 @@
         <v>17</v>
       </c>
       <c r="I11" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>17</v>
@@ -1691,13 +1691,13 @@
         <v>17</v>
       </c>
       <c r="O11" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R11" s="38" t="s">
         <v>17</v>
@@ -1708,13 +1708,13 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>59</v>
@@ -1732,10 +1732,10 @@
         <v>17</v>
       </c>
       <c r="I12" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>17</v>
@@ -1750,13 +1750,13 @@
         <v>17</v>
       </c>
       <c r="O12" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P12" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q12" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R12" s="38" t="s">
         <v>17</v>
@@ -1767,13 +1767,13 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>59</v>
@@ -1791,10 +1791,10 @@
         <v>17</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>17</v>
@@ -1809,13 +1809,13 @@
         <v>17</v>
       </c>
       <c r="O13" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P13" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q13" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R13" s="38" t="s">
         <v>17</v>
@@ -1826,13 +1826,13 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>59</v>
@@ -1850,10 +1850,10 @@
         <v>17</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>17</v>
@@ -1868,13 +1868,13 @@
         <v>17</v>
       </c>
       <c r="O14" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P14" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q14" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R14" s="38" t="s">
         <v>17</v>
@@ -1885,13 +1885,13 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>59</v>
@@ -1909,10 +1909,10 @@
         <v>17</v>
       </c>
       <c r="I15" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>17</v>
@@ -1927,13 +1927,13 @@
         <v>17</v>
       </c>
       <c r="O15" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P15" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q15" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R15" s="38" t="s">
         <v>17</v>
@@ -1944,13 +1944,13 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>59</v>
@@ -1968,10 +1968,10 @@
         <v>17</v>
       </c>
       <c r="I16" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>17</v>
@@ -1986,13 +1986,13 @@
         <v>17</v>
       </c>
       <c r="O16" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P16" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q16" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R16" s="38" t="s">
         <v>17</v>
@@ -2003,13 +2003,13 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>59</v>
@@ -2027,10 +2027,10 @@
         <v>17</v>
       </c>
       <c r="I17" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>17</v>
@@ -2045,13 +2045,13 @@
         <v>17</v>
       </c>
       <c r="O17" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P17" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q17" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R17" s="38" t="s">
         <v>17</v>
@@ -2062,13 +2062,13 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>59</v>
@@ -2086,10 +2086,10 @@
         <v>17</v>
       </c>
       <c r="I18" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>17</v>
@@ -2104,13 +2104,13 @@
         <v>17</v>
       </c>
       <c r="O18" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q18" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R18" s="38" t="s">
         <v>17</v>
@@ -2121,13 +2121,13 @@
     </row>
     <row r="19" spans="1:19" s="45" customFormat="1">
       <c r="A19" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B19" s="40" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D19" s="41" t="s">
         <v>59</v>
@@ -2145,10 +2145,10 @@
         <v>17</v>
       </c>
       <c r="I19" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J19" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K19" s="41" t="s">
         <v>17</v>
@@ -2163,13 +2163,13 @@
         <v>17</v>
       </c>
       <c r="O19" s="43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P19" s="43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q19" s="43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R19" s="39" t="s">
         <v>17</v>
@@ -2180,13 +2180,13 @@
     </row>
     <row r="20" spans="1:19" s="45" customFormat="1">
       <c r="A20" s="39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B20" s="40" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D20" s="41" t="s">
         <v>59</v>
@@ -2204,10 +2204,10 @@
         <v>17</v>
       </c>
       <c r="I20" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J20" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K20" s="41" t="s">
         <v>17</v>
@@ -2222,13 +2222,13 @@
         <v>17</v>
       </c>
       <c r="O20" s="43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P20" s="43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q20" s="43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R20" s="39" t="s">
         <v>17</v>
@@ -2239,13 +2239,13 @@
     </row>
     <row r="21" spans="1:19" s="45" customFormat="1">
       <c r="A21" s="39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B21" s="40" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D21" s="41" t="s">
         <v>59</v>
@@ -2263,10 +2263,10 @@
         <v>17</v>
       </c>
       <c r="I21" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J21" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K21" s="41" t="s">
         <v>17</v>
@@ -2281,13 +2281,13 @@
         <v>17</v>
       </c>
       <c r="O21" s="43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P21" s="43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q21" s="43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R21" s="39" t="s">
         <v>17</v>
@@ -2298,13 +2298,13 @@
     </row>
     <row r="22" spans="1:19" s="45" customFormat="1">
       <c r="A22" s="39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B22" s="40" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D22" s="41" t="s">
         <v>59</v>
@@ -2322,10 +2322,10 @@
         <v>17</v>
       </c>
       <c r="I22" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J22" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K22" s="41" t="s">
         <v>17</v>
@@ -2340,13 +2340,13 @@
         <v>17</v>
       </c>
       <c r="O22" s="43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P22" s="43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q22" s="43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R22" s="39" t="s">
         <v>17</v>
@@ -2357,13 +2357,13 @@
     </row>
     <row r="23" spans="1:19" s="45" customFormat="1">
       <c r="A23" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B23" s="40" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D23" s="41" t="s">
         <v>59</v>
@@ -2381,10 +2381,10 @@
         <v>17</v>
       </c>
       <c r="I23" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J23" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K23" s="41" t="s">
         <v>17</v>
@@ -2399,13 +2399,13 @@
         <v>17</v>
       </c>
       <c r="O23" s="43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P23" s="43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q23" s="43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R23" s="39" t="s">
         <v>17</v>
@@ -2416,16 +2416,16 @@
     </row>
     <row r="24" spans="1:19" s="52" customFormat="1">
       <c r="A24" s="46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B24" s="47" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E24" s="48" t="s">
         <v>17</v>
@@ -2434,16 +2434,16 @@
         <v>61</v>
       </c>
       <c r="G24" s="46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H24" s="48" t="s">
         <v>17</v>
       </c>
       <c r="I24" s="49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J24" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K24" s="48" t="s">
         <v>17</v>
@@ -2458,13 +2458,13 @@
         <v>17</v>
       </c>
       <c r="O24" s="50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P24" s="50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q24" s="50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R24" s="46" t="s">
         <v>17</v>
@@ -2475,16 +2475,16 @@
     </row>
     <row r="25" spans="1:19" s="52" customFormat="1">
       <c r="A25" s="46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B25" s="47" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E25" s="48" t="s">
         <v>17</v>
@@ -2493,16 +2493,16 @@
         <v>61</v>
       </c>
       <c r="G25" s="46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H25" s="48" t="s">
         <v>17</v>
       </c>
       <c r="I25" s="49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J25" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K25" s="48" t="s">
         <v>17</v>
@@ -2517,13 +2517,13 @@
         <v>17</v>
       </c>
       <c r="O25" s="50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P25" s="50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q25" s="50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R25" s="46" t="s">
         <v>17</v>
@@ -2534,16 +2534,16 @@
     </row>
     <row r="26" spans="1:19" s="52" customFormat="1">
       <c r="A26" s="46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B26" s="47" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E26" s="48" t="s">
         <v>17</v>
@@ -2552,16 +2552,16 @@
         <v>61</v>
       </c>
       <c r="G26" s="46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H26" s="48" t="s">
         <v>17</v>
       </c>
       <c r="I26" s="49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J26" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K26" s="48" t="s">
         <v>17</v>
@@ -2576,13 +2576,13 @@
         <v>17</v>
       </c>
       <c r="O26" s="50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P26" s="50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q26" s="50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R26" s="46" t="s">
         <v>17</v>
@@ -2593,16 +2593,16 @@
     </row>
     <row r="27" spans="1:19" s="52" customFormat="1">
       <c r="A27" s="46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B27" s="47" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27" s="48" t="s">
         <v>17</v>
@@ -2611,16 +2611,16 @@
         <v>61</v>
       </c>
       <c r="G27" s="46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H27" s="48" t="s">
         <v>17</v>
       </c>
       <c r="I27" s="49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J27" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K27" s="48" t="s">
         <v>17</v>
@@ -2635,13 +2635,13 @@
         <v>17</v>
       </c>
       <c r="O27" s="50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P27" s="50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q27" s="50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R27" s="46" t="s">
         <v>17</v>
@@ -2652,16 +2652,16 @@
     </row>
     <row r="28" spans="1:19" s="52" customFormat="1">
       <c r="A28" s="46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B28" s="47" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E28" s="48" t="s">
         <v>17</v>
@@ -2670,16 +2670,16 @@
         <v>61</v>
       </c>
       <c r="G28" s="46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H28" s="48" t="s">
         <v>17</v>
       </c>
       <c r="I28" s="49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J28" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K28" s="48" t="s">
         <v>17</v>
@@ -2694,13 +2694,13 @@
         <v>17</v>
       </c>
       <c r="O28" s="50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P28" s="50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q28" s="50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R28" s="46" t="s">
         <v>17</v>
@@ -2711,16 +2711,16 @@
     </row>
     <row r="29" spans="1:19" s="59" customFormat="1">
       <c r="A29" s="53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B29" s="54" t="s">
         <v>23</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E29" s="55" t="s">
         <v>17</v>
@@ -2729,16 +2729,16 @@
         <v>61</v>
       </c>
       <c r="G29" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="H29" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="H29" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="56" t="s">
-        <v>98</v>
-      </c>
       <c r="J29" s="55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K29" s="55" t="s">
         <v>17</v>
@@ -2753,13 +2753,13 @@
         <v>17</v>
       </c>
       <c r="O29" s="57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P29" s="57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q29" s="57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R29" s="53" t="s">
         <v>17</v>
@@ -2770,16 +2770,16 @@
     </row>
     <row r="30" spans="1:19" s="59" customFormat="1">
       <c r="A30" s="53" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B30" s="54" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E30" s="55" t="s">
         <v>17</v>
@@ -2788,16 +2788,16 @@
         <v>61</v>
       </c>
       <c r="G30" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="H30" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="H30" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="56" t="s">
-        <v>98</v>
-      </c>
       <c r="J30" s="55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K30" s="55" t="s">
         <v>17</v>
@@ -2812,13 +2812,13 @@
         <v>17</v>
       </c>
       <c r="O30" s="57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P30" s="57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q30" s="57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R30" s="53" t="s">
         <v>17</v>
@@ -2829,16 +2829,16 @@
     </row>
     <row r="31" spans="1:19" s="59" customFormat="1">
       <c r="A31" s="53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B31" s="54" t="s">
         <v>27</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E31" s="55" t="s">
         <v>17</v>
@@ -2847,16 +2847,16 @@
         <v>61</v>
       </c>
       <c r="G31" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="H31" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="H31" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" s="56" t="s">
-        <v>98</v>
-      </c>
       <c r="J31" s="55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K31" s="55" t="s">
         <v>17</v>
@@ -2871,13 +2871,13 @@
         <v>17</v>
       </c>
       <c r="O31" s="57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P31" s="57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q31" s="57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R31" s="53" t="s">
         <v>17</v>
@@ -2888,16 +2888,16 @@
     </row>
     <row r="32" spans="1:19" s="59" customFormat="1">
       <c r="A32" s="53" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B32" s="54" t="s">
         <v>26</v>
       </c>
       <c r="C32" s="55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E32" s="55" t="s">
         <v>17</v>
@@ -2906,16 +2906,16 @@
         <v>61</v>
       </c>
       <c r="G32" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="H32" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="H32" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="56" t="s">
-        <v>98</v>
-      </c>
       <c r="J32" s="55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K32" s="55" t="s">
         <v>17</v>
@@ -2930,13 +2930,13 @@
         <v>17</v>
       </c>
       <c r="O32" s="57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P32" s="57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q32" s="57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R32" s="53" t="s">
         <v>17</v>
@@ -2947,16 +2947,16 @@
     </row>
     <row r="33" spans="1:20" s="59" customFormat="1">
       <c r="A33" s="53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B33" s="54" t="s">
         <v>28</v>
       </c>
       <c r="C33" s="55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E33" s="55" t="s">
         <v>17</v>
@@ -2965,16 +2965,16 @@
         <v>61</v>
       </c>
       <c r="G33" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="H33" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="H33" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33" s="56" t="s">
-        <v>98</v>
-      </c>
       <c r="J33" s="55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K33" s="55" t="s">
         <v>17</v>
@@ -2989,13 +2989,13 @@
         <v>17</v>
       </c>
       <c r="O33" s="57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P33" s="57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q33" s="57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R33" s="53" t="s">
         <v>17</v>

--- a/config/Master_Test_Template.xlsx
+++ b/config/Master_Test_Template.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/PycharmProjects/test_automation_project/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AC7488-6B83-1F40-92DF-8AD182B3607E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69195CE5-657C-7D4F-BA7B-B83638DC875E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_validation" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="data_quality_checks" sheetId="2" r:id="rId3"/>
+    <sheet name="template meta data" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="data_quality_checks" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_validation!$A$1:$W$34</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="124">
   <si>
     <t>csv</t>
   </si>
@@ -322,13 +323,450 @@
   </si>
   <si>
     <t>master/yellowcabs/trip_data</t>
+  </si>
+  <si>
+    <t>Field Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Unique identifier for each test case, typically used to differentiate between various validation scenarios.</t>
+  </si>
+  <si>
+    <t>If the source is a database, this field contains the database name; otherwise, it is "NOT APPL" for files like CSV, JSON, etc.</t>
+  </si>
+  <si>
+    <t>Path to any transformation SQL queries applied on the source data, if applicable. Marked as "NOT APPL" when no transformations are needed.</t>
+  </si>
+  <si>
+    <t>Path to the schema file (usually in JSON format) for the source data, used to validate the structure of the source dataset.</t>
+  </si>
+  <si>
+    <t>Specifies the target data file or database table where the data will be written or validated against in the test case.</t>
+  </si>
+  <si>
+    <t>Indicates whether the target data is in multiline JSON format (applicable only for JSON targets); otherwise, marked as "NOT APPL".</t>
+  </si>
+  <si>
+    <t>If the target is a database, this field contains the database name; otherwise, it is "NOT APPL" for files like CSV or JSON.</t>
+  </si>
+  <si>
+    <t>Path to the schema file (usually in JSON format) for the target data, used to validate the structure of the target dataset.</t>
+  </si>
+  <si>
+    <t>Path to any transformation SQL queries applied on the target data, if applicable. Marked as "NOT APPL" when no transformations are needed.</t>
+  </si>
+  <si>
+    <t>Columns that should be excluded from validation checks for the given test case.</t>
+  </si>
+  <si>
+    <t>Column(s) on which data quality rules are applied, if applicable.</t>
+  </si>
+  <si>
+    <t>The minimum allowed value in range checks, used when validating numerical columns.</t>
+  </si>
+  <si>
+    <t>The maximum allowed value in range checks, used when validating numerical columns.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The type of the target data, similar to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>source_type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, such as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>csv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>snowflake</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>adls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, etc.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A list of key columns that uniquely identify each record in both the source and target data, used in validation processes like </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>data_compare</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A list of columns where null values are not allowed, used in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>null_value_check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> validation tests.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A list of columns that must have unique values, used in validation processes like </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>uniqueness_check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Indicator (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) specifying whether the test case should be executed (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for Yes, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for No).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Specifies expected values for comparison or validation purposes, typically used in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>data_compare</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> validation tests.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Describes the type of validation or data quality check being performed, such as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>count_check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>null_value_check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>uniqueness_check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, etc. This should be value from selective list</t>
+    </r>
+  </si>
+  <si>
+    <t>Specifies the source data file or database table that is being read or validated in the test case.
+If source is file - then specify path 
+if source is table - specify table name 
+This field accepts both file path or table</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The type of the source data, such as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>csv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>adls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Azure Data Lake Storage), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>snowflake</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, etc. 
+This should value from selective list</t>
+    </r>
+  </si>
+  <si>
+    <t>Indicates whether the source data is in a multiline JSON format (applicable only for JSON sources); otherwise, marked as "NOT APPL".( Applicale only if source_type= 'json' )</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -534,8 +972,29 @@
       <name val="JetBrains Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -560,8 +1019,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -569,13 +1034,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -753,6 +1233,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1031,11 +1520,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G24" sqref="G24:G28"/>
+      <selection pane="bottomRight" sqref="A1:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -3219,6 +3708,217 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{979778C7-28A8-CC42-BD75-56118FD024F0}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="109.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="20">
+      <c r="A1" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="20">
+      <c r="A2" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="44">
+      <c r="A3" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="80">
+      <c r="A4" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="42">
+      <c r="A5" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="40">
+      <c r="A6" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="40">
+      <c r="A7" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="40">
+      <c r="A8" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="40">
+      <c r="A9" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="40">
+      <c r="A10" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="22">
+      <c r="A11" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="40">
+      <c r="A12" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="40">
+      <c r="A13" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="40">
+      <c r="A14" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="40">
+      <c r="A15" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="62" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="42">
+      <c r="A16" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="22">
+      <c r="A17" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="62" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="22">
+      <c r="A18" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="62" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="20">
+      <c r="A19" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="22">
+      <c r="A20" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="20">
+      <c r="A21" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="62" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="42">
+      <c r="A22" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="62" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="20">
+      <c r="A23" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="62" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="20">
+      <c r="A24" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="62" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876D2A77-5349-491D-BA4F-139A3EFA5E9A}">
   <dimension ref="A2:N3"/>
   <sheetViews>
@@ -3293,7 +3993,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B52B2BCF-86EA-4B4D-A15B-D5045F247DA9}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/config/Master_Test_Template.xlsx
+++ b/config/Master_Test_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/PycharmProjects/test_automation_project/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69195CE5-657C-7D4F-BA7B-B83638DC875E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34145064-B888-7248-B70D-4D4DAD6E3F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_validation" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="125">
   <si>
     <t>csv</t>
   </si>
@@ -761,24 +761,20 @@
   <si>
     <t>Indicates whether the source data is in a multiline JSON format (applicable only for JSON sources); otherwise, marked as "NOT APPL".( Applicale only if source_type= 'json' )</t>
   </si>
+  <si>
+    <t>Contact_info_21092024_t.csv</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1055,74 +1051,71 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1141,7 +1134,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1174,73 +1167,70 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1520,11 +1510,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD33"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
@@ -1567,16 +1557,16 @@
       <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1585,7 +1575,7 @@
       <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="25" t="s">
         <v>48</v>
       </c>
       <c r="L1" s="5" t="s">
@@ -1597,22 +1587,22 @@
       <c r="N1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="O1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="P1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="Q1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="38" t="s">
+      <c r="R1" s="37" t="s">
         <v>1</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="33" t="s">
+      <c r="T1" s="32" t="s">
         <v>21</v>
       </c>
       <c r="U1" s="2" t="s">
@@ -1626,7 +1616,7 @@
       </c>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1650,8 +1640,8 @@
       <c r="H2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="29" t="s">
-        <v>55</v>
+      <c r="I2" s="28" t="s">
+        <v>124</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>0</v>
@@ -1668,22 +1658,24 @@
       <c r="N2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="36" t="s">
+      <c r="O2" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="P2" s="30" t="s">
+      <c r="P2" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="R2" s="18"/>
+      <c r="R2" s="37" t="s">
+        <v>17</v>
+      </c>
       <c r="S2" s="1" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1707,8 +1699,8 @@
       <c r="H3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="29" t="s">
-        <v>55</v>
+      <c r="I3" s="28" t="s">
+        <v>124</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>0</v>
@@ -1725,22 +1717,24 @@
       <c r="N3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="32" t="s">
+      <c r="O3" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="P3" s="30" t="s">
+      <c r="P3" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="Q3" s="37" t="s">
+      <c r="Q3" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="R3" s="18"/>
+      <c r="R3" s="37" t="s">
+        <v>17</v>
+      </c>
       <c r="S3" s="1" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1764,8 +1758,8 @@
       <c r="H4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="29" t="s">
-        <v>55</v>
+      <c r="I4" s="28" t="s">
+        <v>124</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>0</v>
@@ -1782,22 +1776,24 @@
       <c r="N4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="32" t="s">
+      <c r="O4" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="P4" s="30" t="s">
+      <c r="P4" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="Q4" s="37" t="s">
+      <c r="Q4" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="R4" s="18"/>
+      <c r="R4" s="37" t="s">
+        <v>17</v>
+      </c>
       <c r="S4" s="1" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="22" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1821,8 +1817,8 @@
       <c r="H5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="29" t="s">
-        <v>55</v>
+      <c r="I5" s="28" t="s">
+        <v>124</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>0</v>
@@ -1839,22 +1835,24 @@
       <c r="N5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="32" t="s">
+      <c r="O5" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="P5" s="30" t="s">
+      <c r="P5" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="Q5" s="37" t="s">
+      <c r="Q5" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="R5" s="18"/>
+      <c r="R5" s="37" t="s">
+        <v>17</v>
+      </c>
       <c r="S5" s="1" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1878,8 +1876,8 @@
       <c r="H6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="29" t="s">
-        <v>55</v>
+      <c r="I6" s="28" t="s">
+        <v>124</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>0</v>
@@ -1896,22 +1894,24 @@
       <c r="N6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="32" t="s">
+      <c r="O6" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="30" t="s">
+      <c r="P6" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="Q6" s="37" t="s">
+      <c r="Q6" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="R6" s="18"/>
+      <c r="R6" s="37" t="s">
+        <v>17</v>
+      </c>
       <c r="S6" s="1" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="22" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1935,8 +1935,8 @@
       <c r="H7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="29" t="s">
-        <v>55</v>
+      <c r="I7" s="28" t="s">
+        <v>124</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>0</v>
@@ -1953,22 +1953,24 @@
       <c r="N7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="32" t="s">
+      <c r="O7" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="P7" s="30" t="s">
+      <c r="P7" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="Q7" s="37" t="s">
+      <c r="Q7" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="R7" s="18"/>
+      <c r="R7" s="37" t="s">
+        <v>17</v>
+      </c>
       <c r="S7" s="1" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="22" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1992,8 +1994,8 @@
       <c r="H8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="29" t="s">
-        <v>55</v>
+      <c r="I8" s="28" t="s">
+        <v>124</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>0</v>
@@ -2010,22 +2012,24 @@
       <c r="N8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="32" t="s">
+      <c r="O8" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="P8" s="30" t="s">
+      <c r="P8" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" s="37" t="s">
+      <c r="Q8" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="R8" s="18"/>
+      <c r="R8" s="37" t="s">
+        <v>17</v>
+      </c>
       <c r="S8" s="1" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="37" t="s">
         <v>56</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -2049,8 +2053,8 @@
       <c r="H9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="29" t="s">
-        <v>55</v>
+      <c r="I9" s="28" t="s">
+        <v>124</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>0</v>
@@ -2067,22 +2071,24 @@
       <c r="N9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="32" t="s">
+      <c r="O9" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="P9" s="30" t="s">
+      <c r="P9" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="Q9" s="37" t="s">
+      <c r="Q9" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="R9" s="18"/>
+      <c r="R9" s="37" t="s">
+        <v>17</v>
+      </c>
       <c r="S9" s="1" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="37" t="s">
         <v>58</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -2100,13 +2106,13 @@
       <c r="F10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="29" t="s">
+      <c r="G10" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="28" t="s">
         <v>60</v>
       </c>
       <c r="J10" s="3" t="s">
@@ -2118,18 +2124,18 @@
       <c r="L10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M10" s="38" t="s">
+      <c r="M10" s="37" t="s">
         <v>17</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O10" s="38" t="s">
+      <c r="O10" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="38" t="s">
+      <c r="P10" s="23"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="37" t="s">
         <v>17</v>
       </c>
       <c r="S10" s="1" t="s">
@@ -2137,7 +2143,7 @@
       </c>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="37" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -2155,13 +2161,13 @@
       <c r="F11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="29" t="s">
+      <c r="G11" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="28" t="s">
         <v>66</v>
       </c>
       <c r="J11" s="3" t="s">
@@ -2173,22 +2179,22 @@
       <c r="L11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M11" s="38" t="s">
+      <c r="M11" s="37" t="s">
         <v>17</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O11" s="38" t="s">
+      <c r="O11" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="P11" s="32" t="s">
+      <c r="P11" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="Q11" s="38" t="s">
+      <c r="Q11" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="R11" s="38" t="s">
+      <c r="R11" s="37" t="s">
         <v>17</v>
       </c>
       <c r="S11" s="1" t="s">
@@ -2196,7 +2202,7 @@
       </c>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="37" t="s">
         <v>68</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2214,13 +2220,13 @@
       <c r="F12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="29" t="s">
+      <c r="G12" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="28" t="s">
         <v>66</v>
       </c>
       <c r="J12" s="3" t="s">
@@ -2232,22 +2238,22 @@
       <c r="L12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M12" s="38" t="s">
+      <c r="M12" s="37" t="s">
         <v>17</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="38" t="s">
+      <c r="O12" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="P12" s="32" t="s">
+      <c r="P12" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="Q12" s="38" t="s">
+      <c r="Q12" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="R12" s="38" t="s">
+      <c r="R12" s="37" t="s">
         <v>17</v>
       </c>
       <c r="S12" s="1" t="s">
@@ -2255,7 +2261,7 @@
       </c>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="37" t="s">
         <v>69</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -2273,13 +2279,13 @@
       <c r="F13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="29" t="s">
+      <c r="G13" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="28" t="s">
         <v>66</v>
       </c>
       <c r="J13" s="3" t="s">
@@ -2291,22 +2297,22 @@
       <c r="L13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M13" s="38" t="s">
+      <c r="M13" s="37" t="s">
         <v>17</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O13" s="38" t="s">
+      <c r="O13" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="32" t="s">
+      <c r="P13" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="Q13" s="38" t="s">
+      <c r="Q13" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="R13" s="38" t="s">
+      <c r="R13" s="37" t="s">
         <v>17</v>
       </c>
       <c r="S13" s="1" t="s">
@@ -2314,7 +2320,7 @@
       </c>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="37" t="s">
         <v>70</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2332,13 +2338,13 @@
       <c r="F14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="29" t="s">
+      <c r="G14" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="28" t="s">
         <v>66</v>
       </c>
       <c r="J14" s="3" t="s">
@@ -2350,22 +2356,22 @@
       <c r="L14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M14" s="38" t="s">
+      <c r="M14" s="37" t="s">
         <v>17</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O14" s="38" t="s">
+      <c r="O14" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="P14" s="32" t="s">
+      <c r="P14" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="Q14" s="38" t="s">
+      <c r="Q14" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="R14" s="38" t="s">
+      <c r="R14" s="37" t="s">
         <v>17</v>
       </c>
       <c r="S14" s="1" t="s">
@@ -2373,7 +2379,7 @@
       </c>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="37" t="s">
         <v>71</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -2391,13 +2397,13 @@
       <c r="F15" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="29" t="s">
+      <c r="G15" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="28" t="s">
         <v>66</v>
       </c>
       <c r="J15" s="3" t="s">
@@ -2409,22 +2415,22 @@
       <c r="L15" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M15" s="38" t="s">
+      <c r="M15" s="37" t="s">
         <v>17</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O15" s="38" t="s">
+      <c r="O15" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="P15" s="32" t="s">
+      <c r="P15" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="Q15" s="38" t="s">
+      <c r="Q15" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="R15" s="38" t="s">
+      <c r="R15" s="37" t="s">
         <v>17</v>
       </c>
       <c r="S15" s="1" t="s">
@@ -2432,7 +2438,7 @@
       </c>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="37" t="s">
         <v>72</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -2450,13 +2456,13 @@
       <c r="F16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="29" t="s">
+      <c r="G16" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="28" t="s">
         <v>66</v>
       </c>
       <c r="J16" s="3" t="s">
@@ -2468,22 +2474,22 @@
       <c r="L16" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M16" s="38" t="s">
+      <c r="M16" s="37" t="s">
         <v>17</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O16" s="38" t="s">
+      <c r="O16" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="P16" s="32" t="s">
+      <c r="P16" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="Q16" s="38" t="s">
+      <c r="Q16" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="R16" s="38" t="s">
+      <c r="R16" s="37" t="s">
         <v>17</v>
       </c>
       <c r="S16" s="1" t="s">
@@ -2491,7 +2497,7 @@
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="37" t="s">
         <v>73</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -2509,13 +2515,13 @@
       <c r="F17" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="29" t="s">
+      <c r="G17" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="28" t="s">
         <v>66</v>
       </c>
       <c r="J17" s="3" t="s">
@@ -2527,22 +2533,22 @@
       <c r="L17" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M17" s="38" t="s">
+      <c r="M17" s="37" t="s">
         <v>17</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O17" s="38" t="s">
+      <c r="O17" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="P17" s="32" t="s">
+      <c r="P17" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="Q17" s="38" t="s">
+      <c r="Q17" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="R17" s="38" t="s">
+      <c r="R17" s="37" t="s">
         <v>17</v>
       </c>
       <c r="S17" s="1" t="s">
@@ -2550,7 +2556,7 @@
       </c>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="37" t="s">
         <v>74</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -2568,13 +2574,13 @@
       <c r="F18" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="29" t="s">
+      <c r="G18" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="28" t="s">
         <v>66</v>
       </c>
       <c r="J18" s="3" t="s">
@@ -2586,975 +2592,975 @@
       <c r="L18" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M18" s="38" t="s">
+      <c r="M18" s="37" t="s">
         <v>17</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O18" s="38" t="s">
+      <c r="O18" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="P18" s="32" t="s">
+      <c r="P18" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="Q18" s="38" t="s">
+      <c r="Q18" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="R18" s="38" t="s">
+      <c r="R18" s="37" t="s">
         <v>17</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="45" customFormat="1">
-      <c r="A19" s="39" t="s">
+    <row r="19" spans="1:19" s="44" customFormat="1">
+      <c r="A19" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="41" t="s">
+      <c r="E19" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="42" t="s">
+      <c r="G19" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="J19" s="41" t="s">
+      <c r="J19" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="K19" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" s="41" t="s">
+      <c r="K19" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="M19" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="N19" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="O19" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="P19" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q19" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="R19" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="S19" s="44" t="s">
+      <c r="M19" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="O19" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="P19" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q19" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="R19" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="S19" s="43" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:19" s="45" customFormat="1">
-      <c r="A20" s="39" t="s">
+    <row r="20" spans="1:19" s="44" customFormat="1">
+      <c r="A20" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="41" t="s">
+      <c r="E20" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="42" t="s">
+      <c r="G20" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="J20" s="41" t="s">
+      <c r="J20" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="K20" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="41" t="s">
+      <c r="K20" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="M20" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="N20" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="O20" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="P20" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q20" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="R20" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="S20" s="44" t="s">
+      <c r="M20" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="N20" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="O20" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="P20" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q20" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="R20" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="S20" s="43" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="45" customFormat="1">
-      <c r="A21" s="39" t="s">
+    <row r="21" spans="1:19" s="44" customFormat="1">
+      <c r="A21" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="41" t="s">
+      <c r="E21" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="G21" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="42" t="s">
+      <c r="G21" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="J21" s="41" t="s">
+      <c r="J21" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="K21" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" s="41" t="s">
+      <c r="K21" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="M21" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="N21" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="O21" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="P21" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q21" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="R21" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="S21" s="44" t="s">
+      <c r="M21" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="O21" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="P21" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q21" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="R21" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="S21" s="43" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="45" customFormat="1">
-      <c r="A22" s="39" t="s">
+    <row r="22" spans="1:19" s="44" customFormat="1">
+      <c r="A22" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="41" t="s">
+      <c r="E22" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="42" t="s">
+      <c r="G22" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="J22" s="41" t="s">
+      <c r="J22" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="K22" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="L22" s="41" t="s">
+      <c r="K22" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="M22" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="N22" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="O22" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="P22" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q22" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="R22" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="S22" s="44" t="s">
+      <c r="M22" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="O22" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="P22" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q22" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="R22" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="S22" s="43" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="45" customFormat="1">
-      <c r="A23" s="39" t="s">
+    <row r="23" spans="1:19" s="44" customFormat="1">
+      <c r="A23" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="41" t="s">
+      <c r="E23" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="G23" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="42" t="s">
+      <c r="G23" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="J23" s="41" t="s">
+      <c r="J23" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="K23" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="L23" s="41" t="s">
+      <c r="K23" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="M23" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="N23" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="O23" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="P23" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q23" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="R23" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="S23" s="44" t="s">
+      <c r="M23" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="N23" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="O23" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="P23" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q23" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="R23" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="S23" s="43" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="52" customFormat="1">
-      <c r="A24" s="46" t="s">
+    <row r="24" spans="1:19" s="51" customFormat="1">
+      <c r="A24" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="48" t="s">
+      <c r="D24" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="E24" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="48" t="s">
+      <c r="E24" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="G24" s="46" t="s">
+      <c r="G24" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="H24" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="49" t="s">
+      <c r="H24" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="J24" s="48" t="s">
+      <c r="J24" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="K24" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="L24" s="48" t="s">
+      <c r="K24" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="M24" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="N24" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="O24" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="P24" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q24" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="R24" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="S24" s="51" t="s">
+      <c r="M24" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="N24" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="O24" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="P24" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q24" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="R24" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="S24" s="50" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:19" s="52" customFormat="1">
-      <c r="A25" s="46" t="s">
+    <row r="25" spans="1:19" s="51" customFormat="1">
+      <c r="A25" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="48" t="s">
+      <c r="D25" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="48" t="s">
+      <c r="E25" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="46" t="s">
+      <c r="G25" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="H25" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="49" t="s">
+      <c r="H25" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="J25" s="48" t="s">
+      <c r="J25" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="K25" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="L25" s="48" t="s">
+      <c r="K25" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="M25" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="N25" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="O25" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="P25" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q25" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="R25" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="S25" s="51" t="s">
+      <c r="M25" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="N25" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="O25" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="P25" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q25" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="R25" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="S25" s="50" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="52" customFormat="1">
-      <c r="A26" s="46" t="s">
+    <row r="26" spans="1:19" s="51" customFormat="1">
+      <c r="A26" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="48" t="s">
+      <c r="D26" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="48" t="s">
+      <c r="E26" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="46" t="s">
+      <c r="G26" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="H26" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" s="49" t="s">
+      <c r="H26" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="J26" s="48" t="s">
+      <c r="J26" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="K26" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="L26" s="48" t="s">
+      <c r="K26" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="M26" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="N26" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="O26" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="P26" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q26" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="R26" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="S26" s="51" t="s">
+      <c r="M26" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="N26" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="O26" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="P26" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q26" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="R26" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="S26" s="50" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="52" customFormat="1">
-      <c r="A27" s="46" t="s">
+    <row r="27" spans="1:19" s="51" customFormat="1">
+      <c r="A27" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="48" t="s">
+      <c r="D27" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="48" t="s">
+      <c r="E27" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="G27" s="46" t="s">
+      <c r="G27" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="H27" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" s="49" t="s">
+      <c r="H27" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="J27" s="48" t="s">
+      <c r="J27" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="K27" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="L27" s="48" t="s">
+      <c r="K27" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="M27" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="N27" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="O27" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="P27" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q27" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="R27" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="S27" s="51" t="s">
+      <c r="M27" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="N27" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="O27" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="P27" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q27" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="R27" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="S27" s="50" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:19" s="52" customFormat="1">
-      <c r="A28" s="46" t="s">
+    <row r="28" spans="1:19" s="51" customFormat="1">
+      <c r="A28" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="48" t="s">
+      <c r="D28" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="48" t="s">
+      <c r="E28" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="G28" s="46" t="s">
+      <c r="G28" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="H28" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28" s="49" t="s">
+      <c r="H28" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="J28" s="48" t="s">
+      <c r="J28" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="K28" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="L28" s="48" t="s">
+      <c r="K28" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="M28" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="N28" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="O28" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="P28" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q28" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="R28" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="S28" s="51" t="s">
+      <c r="M28" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="N28" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="O28" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="P28" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q28" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="R28" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="S28" s="50" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:19" s="59" customFormat="1">
-      <c r="A29" s="53" t="s">
+    <row r="29" spans="1:19" s="57" customFormat="1">
+      <c r="A29" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="55" t="s">
+      <c r="D29" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="55" t="s">
+      <c r="E29" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="G29" s="53" t="s">
+      <c r="G29" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="H29" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="I29" s="56" t="s">
+      <c r="H29" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="J29" s="55" t="s">
+      <c r="J29" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="K29" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="L29" s="55" t="s">
+      <c r="K29" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="M29" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="N29" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="O29" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="P29" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q29" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="R29" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="S29" s="58" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" s="59" customFormat="1">
-      <c r="A30" s="53" t="s">
+      <c r="M29" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="N29" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="O29" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="P29" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q29" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="R29" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="S29" s="52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" s="57" customFormat="1">
+      <c r="A30" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="55" t="s">
+      <c r="D30" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="55" t="s">
+      <c r="E30" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="G30" s="53" t="s">
+      <c r="G30" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="H30" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="56" t="s">
+      <c r="H30" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="J30" s="55" t="s">
+      <c r="J30" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="K30" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="L30" s="55" t="s">
+      <c r="K30" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="M30" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="N30" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="O30" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="P30" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q30" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="R30" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="S30" s="58" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" s="59" customFormat="1">
-      <c r="A31" s="53" t="s">
+      <c r="M30" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="N30" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="O30" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="P30" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q30" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="R30" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="S30" s="52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" s="57" customFormat="1">
+      <c r="A31" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="55" t="s">
+      <c r="D31" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="E31" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="55" t="s">
+      <c r="E31" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="G31" s="53" t="s">
+      <c r="G31" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="H31" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" s="56" t="s">
+      <c r="H31" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="J31" s="55" t="s">
+      <c r="J31" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="K31" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="L31" s="55" t="s">
+      <c r="K31" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="M31" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="N31" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="O31" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="P31" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q31" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="R31" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="S31" s="58" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" s="59" customFormat="1">
-      <c r="A32" s="53" t="s">
+      <c r="M31" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="N31" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="O31" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="P31" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q31" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="R31" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="S31" s="52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" s="57" customFormat="1">
+      <c r="A32" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="54" t="s">
+      <c r="B32" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="55" t="s">
+      <c r="D32" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="E32" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="55" t="s">
+      <c r="E32" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="G32" s="53" t="s">
+      <c r="G32" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="H32" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="56" t="s">
+      <c r="H32" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="J32" s="55" t="s">
+      <c r="J32" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="K32" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="L32" s="55" t="s">
+      <c r="K32" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="M32" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="N32" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="O32" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="P32" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q32" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="R32" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="S32" s="58" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" s="59" customFormat="1">
-      <c r="A33" s="53" t="s">
+      <c r="M32" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="N32" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="O32" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="P32" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q32" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="R32" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="S32" s="52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" s="57" customFormat="1">
+      <c r="A33" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="55" t="s">
+      <c r="D33" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="E33" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="55" t="s">
+      <c r="E33" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="G33" s="53" t="s">
+      <c r="G33" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="H33" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33" s="56" t="s">
+      <c r="H33" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="J33" s="55" t="s">
+      <c r="J33" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="K33" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="L33" s="55" t="s">
+      <c r="K33" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="M33" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="N33" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="O33" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="P33" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q33" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="R33" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="S33" s="58" t="s">
-        <v>2</v>
+      <c r="M33" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="N33" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="O33" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="P33" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q33" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="R33" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="S33" s="52" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:20">
-      <c r="A34" s="19"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="4"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
       <c r="G34" s="16"/>
-      <c r="H34" s="19"/>
+      <c r="H34" s="18"/>
       <c r="I34" s="14"/>
       <c r="J34" s="3"/>
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
-      <c r="M34" s="19"/>
+      <c r="M34" s="18"/>
       <c r="N34" s="3"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="19"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="18"/>
       <c r="S34" s="1"/>
     </row>
     <row r="35" spans="1:20">
-      <c r="A35" s="19"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="4"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
       <c r="G35" s="16"/>
-      <c r="H35" s="19"/>
+      <c r="H35" s="18"/>
       <c r="I35" s="14"/>
       <c r="J35" s="3"/>
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
-      <c r="M35" s="19"/>
+      <c r="M35" s="18"/>
       <c r="N35" s="3"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="19"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="18"/>
       <c r="S35" s="1"/>
       <c r="T35" s="11"/>
     </row>
     <row r="36" spans="1:20">
-      <c r="A36" s="19"/>
+      <c r="A36" s="18"/>
       <c r="B36" s="4"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
       <c r="G36" s="16"/>
-      <c r="H36" s="19"/>
+      <c r="H36" s="18"/>
       <c r="I36" s="14"/>
       <c r="J36" s="3"/>
       <c r="K36" s="15"/>
       <c r="L36" s="15"/>
-      <c r="M36" s="19"/>
+      <c r="M36" s="18"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="19"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="18"/>
       <c r="S36" s="1"/>
     </row>
     <row r="37" spans="1:20">
@@ -3684,7 +3690,7 @@
       <c r="S42" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="26" type="noConversion"/>
+  <phoneticPr fontId="25" type="noConversion"/>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24:D33 J1:J1048576" xr:uid="{39CDAD1A-527D-8A43-BFCC-4279C43AB355}">
       <formula1>"csv,json,parquet,avro,table,snowflake,redshift,adls,s3"</formula1>
@@ -3711,8 +3717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{979778C7-28A8-CC42-BD75-56118FD024F0}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3722,194 +3728,194 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="58" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="60" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="44">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="60" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="80">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="60" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="42">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="60" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="40">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="60" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="40">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="60" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="40">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="60" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="40">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="60" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="40">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="60" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="22">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="60" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="40">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="60" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="40">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="60" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="40">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="60" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="40">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="60" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="42">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="60" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="22">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="60" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="22">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="60" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="20">
-      <c r="A19" s="61" t="s">
+      <c r="A19" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="60" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="22">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="60" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="20">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="60" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="42">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="60" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="20">
-      <c r="A23" s="61" t="s">
+      <c r="A23" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="60" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="20">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="60" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3946,13 +3952,13 @@
       <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="21" t="s">
         <v>35</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -3961,19 +3967,19 @@
       <c r="H3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="22" t="s">
         <v>17</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="24" t="s">
         <v>39</v>
       </c>
       <c r="N3" t="s">
